--- a/test/results/01.BasicCodonUsage/NS5/NS5.RSCU.xlsx
+++ b/test/results/01.BasicCodonUsage/NS5/NS5.RSCU.xlsx
@@ -253,6 +253,9 @@
     <t>TAT</t>
   </si>
   <si>
+    <t>KF383118</t>
+  </si>
+  <si>
     <t>LC002520</t>
   </si>
   <si>
@@ -262,31 +265,28 @@
     <t>KF383119</t>
   </si>
   <si>
-    <t>KF383118</t>
+    <t>KF383115</t>
   </si>
   <si>
     <t>KF268949</t>
   </si>
   <si>
+    <t>KF268950</t>
+  </si>
+  <si>
     <t>KF268948</t>
   </si>
   <si>
-    <t>KF383115</t>
+    <t>KF383116</t>
   </si>
   <si>
-    <t>KF268950</t>
+    <t>KU955595</t>
   </si>
   <si>
     <t>HQ234500</t>
   </si>
   <si>
-    <t>KF383116</t>
-  </si>
-  <si>
     <t>HQ234501</t>
-  </si>
-  <si>
-    <t>KU955595</t>
   </si>
   <si>
     <t>KU955592</t>
@@ -295,19 +295,19 @@
     <t>KU955591</t>
   </si>
   <si>
-    <t>KF383117</t>
+    <t>KX601166</t>
   </si>
   <si>
-    <t>KX601166</t>
+    <t>KF383117</t>
   </si>
   <si>
     <t>HQ234499</t>
   </si>
   <si>
-    <t>KU681082</t>
+    <t>EU545988</t>
   </si>
   <si>
-    <t>EU545988</t>
+    <t>KU681082</t>
   </si>
   <si>
     <t>KU955593</t>
@@ -316,13 +316,13 @@
     <t>KX694532</t>
   </si>
   <si>
-    <t>KU681081</t>
+    <t>KX447517</t>
   </si>
   <si>
     <t>KX813683</t>
   </si>
   <si>
-    <t>KX447517</t>
+    <t>KU681081</t>
   </si>
   <si>
     <t>KU744693</t>
@@ -331,16 +331,13 @@
     <t>KX197192</t>
   </si>
   <si>
+    <t>KU321639</t>
+  </si>
+  <si>
     <t>KU509998</t>
   </si>
   <si>
-    <t>KU321639</t>
-  </si>
-  <si>
     <t>KU527068</t>
-  </si>
-  <si>
-    <t>KX051563</t>
   </si>
   <si>
     <t>KX838906</t>
@@ -349,25 +346,28 @@
     <t>KX673530</t>
   </si>
   <si>
+    <t>KX051563</t>
+  </si>
+  <si>
     <t>KX838904</t>
   </si>
   <si>
     <t>KX832731</t>
   </si>
   <si>
+    <t>KX838905</t>
+  </si>
+  <si>
     <t>KX842449</t>
   </si>
   <si>
-    <t>KX838905</t>
-  </si>
-  <si>
-    <t>KU853012</t>
+    <t>KU729217</t>
   </si>
   <si>
     <t>KU853013</t>
   </si>
   <si>
-    <t>KU729217</t>
+    <t>KU853012</t>
   </si>
   <si>
     <t>KX280026</t>
@@ -385,10 +385,10 @@
     <t>KU740184</t>
   </si>
   <si>
-    <t>KU761564</t>
+    <t>KU820898</t>
   </si>
   <si>
-    <t>KU820898</t>
+    <t>KU761564</t>
   </si>
   <si>
     <t>KX087101</t>
@@ -409,10 +409,10 @@
     <t>KU365779</t>
   </si>
   <si>
-    <t>KU707826</t>
+    <t>KU365777</t>
   </si>
   <si>
-    <t>KU365777</t>
+    <t>KU707826</t>
   </si>
   <si>
     <t>KU365780</t>
@@ -421,10 +421,10 @@
     <t>KU870645</t>
   </si>
   <si>
-    <t>KX694534</t>
+    <t>KX262887</t>
   </si>
   <si>
-    <t>KX262887</t>
+    <t>KX694534</t>
   </si>
   <si>
     <t>KU501217</t>
@@ -460,10 +460,10 @@
     <t>KU497555</t>
   </si>
   <si>
-    <t>KX548902</t>
+    <t>KU991811</t>
   </si>
   <si>
-    <t>KU991811</t>
+    <t>KX548902</t>
   </si>
   <si>
     <t>KU647676</t>
@@ -484,10 +484,10 @@
     <t>KX247646</t>
   </si>
   <si>
-    <t>KX087102</t>
+    <t>KU820897</t>
   </si>
   <si>
-    <t>KU820897</t>
+    <t>KX087102</t>
   </si>
   <si>
     <t>KX156775</t>
@@ -1201,16 +1201,16 @@
         <v>79</v>
       </c>
       <c r="B4">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="D4">
         <v>0.38</v>
       </c>
       <c r="E4">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="F4">
         <v>0.75</v>
@@ -1219,79 +1219,79 @@
         <v>1.25</v>
       </c>
       <c r="H4">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="I4">
-        <v>0.76</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J4">
+        <v>0.96</v>
+      </c>
+      <c r="K4">
+        <v>1.04</v>
+      </c>
+      <c r="L4">
+        <v>1.05</v>
+      </c>
+      <c r="M4">
+        <v>0.95</v>
+      </c>
+      <c r="N4">
+        <v>2.02</v>
+      </c>
+      <c r="O4">
+        <v>0.53</v>
+      </c>
+      <c r="P4">
         <v>1.01</v>
       </c>
-      <c r="K4">
-        <v>0.99</v>
-      </c>
-      <c r="L4">
-        <v>1.26</v>
-      </c>
-      <c r="M4">
-        <v>0.74</v>
-      </c>
-      <c r="N4">
-        <v>2.12</v>
-      </c>
-      <c r="O4">
+      <c r="Q4">
         <v>0.43</v>
       </c>
-      <c r="P4">
-        <v>0.96</v>
-      </c>
-      <c r="Q4">
-        <v>0.48</v>
-      </c>
       <c r="R4">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="S4">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="T4">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
       <c r="U4">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="V4">
+        <v>0.91</v>
+      </c>
+      <c r="W4">
+        <v>1.06</v>
+      </c>
+      <c r="X4">
         <v>0.9399999999999999</v>
       </c>
-      <c r="W4">
-        <v>1.02</v>
-      </c>
-      <c r="X4">
-        <v>0.98</v>
-      </c>
       <c r="Y4">
-        <v>0.34</v>
+        <v>0.25</v>
       </c>
       <c r="Z4">
         <v>1.52</v>
       </c>
       <c r="AA4">
-        <v>1.77</v>
+        <v>2.28</v>
       </c>
       <c r="AB4">
-        <v>0.76</v>
+        <v>0.68</v>
       </c>
       <c r="AC4">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
       <c r="AD4">
-        <v>1.18</v>
+        <v>0.93</v>
       </c>
       <c r="AE4">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AF4">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AG4">
         <v>1.94</v>
@@ -1306,46 +1306,46 @@
         <v>0.61</v>
       </c>
       <c r="AK4">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="AL4">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="AM4">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="AN4">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AO4">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="AP4">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AQ4">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="AR4">
         <v>0.32</v>
       </c>
       <c r="AS4">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AT4">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AU4">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AV4">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AW4">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="AX4">
-        <v>0.82</v>
+        <v>0.92</v>
       </c>
       <c r="AY4">
         <v>1.41</v>
@@ -1360,22 +1360,22 @@
         <v>1.19</v>
       </c>
       <c r="BC4">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="BD4">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="BE4">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="BF4">
-        <v>0.6899999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="BG4">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="BH4">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="5" spans="1:60">
@@ -1458,7 +1458,7 @@
         <v>1.52</v>
       </c>
       <c r="AA5">
-        <v>1.86</v>
+        <v>1.77</v>
       </c>
       <c r="AB5">
         <v>0.76</v>
@@ -1467,7 +1467,7 @@
         <v>0.42</v>
       </c>
       <c r="AD5">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AE5">
         <v>1.31</v>
@@ -1589,10 +1589,10 @@
         <v>0.76</v>
       </c>
       <c r="J6">
-        <v>0.93</v>
+        <v>1.01</v>
       </c>
       <c r="K6">
-        <v>1.07</v>
+        <v>0.99</v>
       </c>
       <c r="L6">
         <v>1.26</v>
@@ -1601,61 +1601,61 @@
         <v>0.74</v>
       </c>
       <c r="N6">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O6">
-        <v>0.52</v>
+        <v>0.43</v>
       </c>
       <c r="P6">
+        <v>0.96</v>
+      </c>
+      <c r="Q6">
+        <v>0.48</v>
+      </c>
+      <c r="R6">
+        <v>1.05</v>
+      </c>
+      <c r="S6">
         <v>0.95</v>
       </c>
-      <c r="Q6">
-        <v>0.43</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
       <c r="T6">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="U6">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="V6">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W6">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="X6">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="Y6">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
       <c r="Z6">
         <v>1.52</v>
       </c>
       <c r="AA6">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="AB6">
         <v>0.76</v>
       </c>
       <c r="AC6">
-        <v>0.34</v>
+        <v>0.42</v>
       </c>
       <c r="AD6">
         <v>1.1</v>
       </c>
       <c r="AE6">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="AF6">
-        <v>0.65</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AG6">
         <v>1.94</v>
@@ -1670,46 +1670,46 @@
         <v>0.61</v>
       </c>
       <c r="AK6">
-        <v>1.04</v>
+        <v>1.15</v>
       </c>
       <c r="AL6">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="AM6">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="AN6">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AO6">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="AP6">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ6">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR6">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AS6">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT6">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU6">
-        <v>1.04</v>
+        <v>1.18</v>
       </c>
       <c r="AV6">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="AW6">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="AX6">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="AY6">
         <v>1.41</v>
@@ -1724,22 +1724,22 @@
         <v>1.19</v>
       </c>
       <c r="BC6">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
       <c r="BD6">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="BE6">
-        <v>2.2</v>
+        <v>2.29</v>
       </c>
       <c r="BF6">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="BG6">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="BH6">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="7" spans="1:60">
@@ -1747,16 +1747,16 @@
         <v>82</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="C7">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="D7">
         <v>0.38</v>
       </c>
       <c r="E7">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="F7">
         <v>0.75</v>
@@ -1765,40 +1765,40 @@
         <v>1.25</v>
       </c>
       <c r="H7">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="I7">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="J7">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="K7">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="L7">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="M7">
+        <v>0.74</v>
+      </c>
+      <c r="N7">
+        <v>2.1</v>
+      </c>
+      <c r="O7">
+        <v>0.52</v>
+      </c>
+      <c r="P7">
         <v>0.95</v>
-      </c>
-      <c r="N7">
-        <v>2.02</v>
-      </c>
-      <c r="O7">
-        <v>0.53</v>
-      </c>
-      <c r="P7">
-        <v>1.01</v>
       </c>
       <c r="Q7">
         <v>0.43</v>
       </c>
       <c r="R7">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <v>0.73</v>
@@ -1822,22 +1822,22 @@
         <v>1.52</v>
       </c>
       <c r="AA7">
-        <v>2.28</v>
+        <v>2.03</v>
       </c>
       <c r="AB7">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
       <c r="AC7">
         <v>0.34</v>
       </c>
       <c r="AD7">
-        <v>0.93</v>
+        <v>1.1</v>
       </c>
       <c r="AE7">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AF7">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
       <c r="AG7">
         <v>1.94</v>
@@ -1858,31 +1858,31 @@
         <v>0.96</v>
       </c>
       <c r="AM7">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="AN7">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AO7">
         <v>0.49</v>
       </c>
       <c r="AP7">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AQ7">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="AR7">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="AS7">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT7">
         <v>0.92</v>
       </c>
       <c r="AU7">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="AV7">
         <v>1.15</v>
@@ -1929,181 +1929,181 @@
         <v>83</v>
       </c>
       <c r="B8">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="C8">
-        <v>1.41</v>
+        <v>1.15</v>
       </c>
       <c r="D8">
-        <v>0.15</v>
+        <v>0.31</v>
       </c>
       <c r="E8">
-        <v>1.26</v>
+        <v>1.46</v>
       </c>
       <c r="F8">
-        <v>1.06</v>
+        <v>0.78</v>
       </c>
       <c r="G8">
-        <v>0.9399999999999999</v>
+        <v>1.22</v>
       </c>
       <c r="H8">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="I8">
-        <v>0.78</v>
+        <v>0.9</v>
       </c>
       <c r="J8">
-        <v>1.01</v>
+        <v>0.93</v>
       </c>
       <c r="K8">
-        <v>0.99</v>
+        <v>1.07</v>
       </c>
       <c r="L8">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="M8">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="N8">
-        <v>2.27</v>
+        <v>2.07</v>
       </c>
       <c r="O8">
-        <v>0.53</v>
+        <v>0.39</v>
       </c>
       <c r="P8">
-        <v>0.72</v>
+        <v>0.96</v>
       </c>
       <c r="Q8">
-        <v>0.48</v>
+        <v>0.58</v>
       </c>
       <c r="R8">
-        <v>0.91</v>
+        <v>1.14</v>
       </c>
       <c r="S8">
-        <v>1.09</v>
+        <v>0.86</v>
       </c>
       <c r="T8">
         <v>0.71</v>
       </c>
       <c r="U8">
+        <v>1.06</v>
+      </c>
+      <c r="V8">
         <v>1.24</v>
       </c>
-      <c r="V8">
-        <v>1.06</v>
-      </c>
       <c r="W8">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="Y8">
         <v>0.6</v>
       </c>
       <c r="Z8">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="AA8">
-        <v>1.8</v>
+        <v>2.14</v>
       </c>
       <c r="AB8">
-        <v>0.6899999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="AC8">
         <v>0.43</v>
       </c>
       <c r="AD8">
-        <v>1.03</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AE8">
+        <v>1.35</v>
+      </c>
+      <c r="AF8">
+        <v>0.65</v>
+      </c>
+      <c r="AG8">
+        <v>1.94</v>
+      </c>
+      <c r="AH8">
+        <v>1.33</v>
+      </c>
+      <c r="AI8">
+        <v>0.12</v>
+      </c>
+      <c r="AJ8">
+        <v>0.61</v>
+      </c>
+      <c r="AK8">
         <v>1.12</v>
       </c>
-      <c r="AF8">
+      <c r="AL8">
         <v>0.88</v>
       </c>
-      <c r="AG8">
-        <v>1.82</v>
-      </c>
-      <c r="AH8">
-        <v>1.09</v>
-      </c>
-      <c r="AI8">
-        <v>0.36</v>
-      </c>
-      <c r="AJ8">
-        <v>0.73</v>
-      </c>
-      <c r="AK8">
-        <v>1.15</v>
-      </c>
-      <c r="AL8">
-        <v>0.85</v>
-      </c>
       <c r="AM8">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="AN8">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="AO8">
         <v>0.5</v>
       </c>
       <c r="AP8">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AQ8">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
       <c r="AS8">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="AT8">
-        <v>1.06</v>
+        <v>0.91</v>
       </c>
       <c r="AU8">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AV8">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AW8">
-        <v>0.47</v>
+        <v>0.68</v>
       </c>
       <c r="AX8">
-        <v>0.82</v>
+        <v>0.57</v>
       </c>
       <c r="AY8">
-        <v>1.41</v>
+        <v>1.26</v>
       </c>
       <c r="AZ8">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="BA8">
-        <v>0.22</v>
+        <v>0.37</v>
       </c>
       <c r="BB8">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="BC8">
-        <v>0.12</v>
+        <v>0.35</v>
       </c>
       <c r="BD8">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="BE8">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="BF8">
-        <v>0.75</v>
+        <v>0.58</v>
       </c>
       <c r="BG8">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="BH8">
-        <v>0.71</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="9" spans="1:60">
@@ -2111,34 +2111,34 @@
         <v>84</v>
       </c>
       <c r="B9">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="C9">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="D9">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="E9">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="F9">
-        <v>0.59</v>
+        <v>1.06</v>
       </c>
       <c r="G9">
-        <v>1.41</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H9">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="I9">
-        <v>0.8100000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="J9">
+        <v>1.01</v>
+      </c>
+      <c r="K9">
         <v>0.99</v>
-      </c>
-      <c r="K9">
-        <v>1.01</v>
       </c>
       <c r="L9">
         <v>1.3</v>
@@ -2147,82 +2147,82 @@
         <v>0.7</v>
       </c>
       <c r="N9">
-        <v>2.17</v>
+        <v>2.27</v>
       </c>
       <c r="O9">
+        <v>0.53</v>
+      </c>
+      <c r="P9">
+        <v>0.72</v>
+      </c>
+      <c r="Q9">
         <v>0.48</v>
       </c>
-      <c r="P9">
-        <v>0.82</v>
-      </c>
-      <c r="Q9">
-        <v>0.53</v>
-      </c>
       <c r="R9">
-        <v>0.82</v>
+        <v>0.91</v>
       </c>
       <c r="S9">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="T9">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="U9">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="V9">
-        <v>1.22</v>
+        <v>1.06</v>
       </c>
       <c r="W9">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="X9">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="Y9">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="Z9">
         <v>1.46</v>
       </c>
       <c r="AA9">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="AB9">
         <v>0.6899999999999999</v>
       </c>
       <c r="AC9">
-        <v>0.6899999999999999</v>
+        <v>0.43</v>
       </c>
       <c r="AD9">
         <v>1.03</v>
       </c>
       <c r="AE9">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AF9">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="AG9">
         <v>1.82</v>
       </c>
       <c r="AH9">
-        <v>1.33</v>
+        <v>1.09</v>
       </c>
       <c r="AI9">
         <v>0.36</v>
       </c>
       <c r="AJ9">
-        <v>0.48</v>
+        <v>0.73</v>
       </c>
       <c r="AK9">
-        <v>1.04</v>
+        <v>1.15</v>
       </c>
       <c r="AL9">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="AM9">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="AN9">
         <v>1.08</v>
@@ -2231,13 +2231,13 @@
         <v>0.5</v>
       </c>
       <c r="AP9">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="AR9">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="AS9">
         <v>1.29</v>
@@ -2258,34 +2258,34 @@
         <v>0.82</v>
       </c>
       <c r="AY9">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="AZ9">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="BA9">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="BB9">
-        <v>0.91</v>
+        <v>1.04</v>
       </c>
       <c r="BC9">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="BD9">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="BE9">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="BF9">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="BG9">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="BH9">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="10" spans="1:60">
@@ -2293,121 +2293,121 @@
         <v>85</v>
       </c>
       <c r="B10">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="C10">
-        <v>1.15</v>
+        <v>1.31</v>
       </c>
       <c r="D10">
-        <v>0.31</v>
+        <v>0.22</v>
       </c>
       <c r="E10">
+        <v>1.31</v>
+      </c>
+      <c r="F10">
+        <v>0.71</v>
+      </c>
+      <c r="G10">
+        <v>1.29</v>
+      </c>
+      <c r="H10">
+        <v>1.19</v>
+      </c>
+      <c r="I10">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J10">
+        <v>0.99</v>
+      </c>
+      <c r="K10">
+        <v>1.01</v>
+      </c>
+      <c r="L10">
+        <v>1.3</v>
+      </c>
+      <c r="M10">
+        <v>0.7</v>
+      </c>
+      <c r="N10">
+        <v>2.17</v>
+      </c>
+      <c r="O10">
+        <v>0.48</v>
+      </c>
+      <c r="P10">
+        <v>0.82</v>
+      </c>
+      <c r="Q10">
+        <v>0.53</v>
+      </c>
+      <c r="R10">
+        <v>0.82</v>
+      </c>
+      <c r="S10">
+        <v>1.18</v>
+      </c>
+      <c r="T10">
+        <v>0.66</v>
+      </c>
+      <c r="U10">
+        <v>1.12</v>
+      </c>
+      <c r="V10">
+        <v>1.22</v>
+      </c>
+      <c r="W10">
+        <v>0.98</v>
+      </c>
+      <c r="X10">
+        <v>1.02</v>
+      </c>
+      <c r="Y10">
+        <v>0.43</v>
+      </c>
+      <c r="Z10">
         <v>1.46</v>
       </c>
-      <c r="F10">
-        <v>0.78</v>
-      </c>
-      <c r="G10">
-        <v>1.22</v>
-      </c>
-      <c r="H10">
+      <c r="AA10">
+        <v>1.71</v>
+      </c>
+      <c r="AB10">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AC10">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AD10">
+        <v>1.03</v>
+      </c>
+      <c r="AE10">
         <v>1.1</v>
       </c>
-      <c r="I10">
+      <c r="AF10">
         <v>0.9</v>
       </c>
-      <c r="J10">
-        <v>0.93</v>
-      </c>
-      <c r="K10">
-        <v>1.07</v>
-      </c>
-      <c r="L10">
-        <v>1.1</v>
-      </c>
-      <c r="M10">
-        <v>0.9</v>
-      </c>
-      <c r="N10">
-        <v>2.07</v>
-      </c>
-      <c r="O10">
-        <v>0.39</v>
-      </c>
-      <c r="P10">
-        <v>0.96</v>
-      </c>
-      <c r="Q10">
-        <v>0.58</v>
-      </c>
-      <c r="R10">
-        <v>1.14</v>
-      </c>
-      <c r="S10">
-        <v>0.86</v>
-      </c>
-      <c r="T10">
-        <v>0.71</v>
-      </c>
-      <c r="U10">
-        <v>1.06</v>
-      </c>
-      <c r="V10">
-        <v>1.24</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
-      </c>
-      <c r="Y10">
-        <v>0.6</v>
-      </c>
-      <c r="Z10">
-        <v>1.37</v>
-      </c>
-      <c r="AA10">
-        <v>2.14</v>
-      </c>
-      <c r="AB10">
-        <v>0.77</v>
-      </c>
-      <c r="AC10">
-        <v>0.43</v>
-      </c>
-      <c r="AD10">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AE10">
-        <v>1.35</v>
-      </c>
-      <c r="AF10">
-        <v>0.65</v>
-      </c>
       <c r="AG10">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AH10">
         <v>1.33</v>
       </c>
       <c r="AI10">
-        <v>0.12</v>
+        <v>0.36</v>
       </c>
       <c r="AJ10">
-        <v>0.61</v>
+        <v>0.48</v>
       </c>
       <c r="AK10">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="AL10">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="AM10">
         <v>2.17</v>
       </c>
       <c r="AN10">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AO10">
         <v>0.5</v>
@@ -2419,55 +2419,55 @@
         <v>0.5</v>
       </c>
       <c r="AR10">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AS10">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="AT10">
+        <v>1.06</v>
+      </c>
+      <c r="AU10">
+        <v>1.18</v>
+      </c>
+      <c r="AV10">
+        <v>1.18</v>
+      </c>
+      <c r="AW10">
+        <v>0.47</v>
+      </c>
+      <c r="AX10">
+        <v>0.82</v>
+      </c>
+      <c r="AY10">
+        <v>1.51</v>
+      </c>
+      <c r="AZ10">
+        <v>1.36</v>
+      </c>
+      <c r="BA10">
+        <v>0.23</v>
+      </c>
+      <c r="BB10">
         <v>0.91</v>
       </c>
-      <c r="AU10">
-        <v>1.13</v>
-      </c>
-      <c r="AV10">
-        <v>1.25</v>
-      </c>
-      <c r="AW10">
-        <v>0.68</v>
-      </c>
-      <c r="AX10">
-        <v>0.57</v>
-      </c>
-      <c r="AY10">
+      <c r="BC10">
+        <v>0.23</v>
+      </c>
+      <c r="BD10">
+        <v>0.9</v>
+      </c>
+      <c r="BE10">
+        <v>2.25</v>
+      </c>
+      <c r="BF10">
+        <v>0.62</v>
+      </c>
+      <c r="BG10">
         <v>1.26</v>
       </c>
-      <c r="AZ10">
-        <v>1.26</v>
-      </c>
-      <c r="BA10">
-        <v>0.37</v>
-      </c>
-      <c r="BB10">
-        <v>1.11</v>
-      </c>
-      <c r="BC10">
-        <v>0.35</v>
-      </c>
-      <c r="BD10">
-        <v>0.87</v>
-      </c>
-      <c r="BE10">
-        <v>2.2</v>
-      </c>
-      <c r="BF10">
-        <v>0.58</v>
-      </c>
-      <c r="BG10">
-        <v>1.21</v>
-      </c>
       <c r="BH10">
-        <v>0.79</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="11" spans="1:60">
@@ -2487,10 +2487,10 @@
         <v>1.31</v>
       </c>
       <c r="F11">
-        <v>0.71</v>
+        <v>0.59</v>
       </c>
       <c r="G11">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="H11">
         <v>1.19</v>
@@ -2562,10 +2562,10 @@
         <v>1.03</v>
       </c>
       <c r="AE11">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AF11">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="AG11">
         <v>1.82</v>
@@ -2657,34 +2657,34 @@
         <v>87</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="C12">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="D12">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="E12">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="F12">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="G12">
-        <v>1.38</v>
+        <v>1.25</v>
       </c>
       <c r="H12">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="I12">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="J12">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="K12">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="L12">
         <v>1.2</v>
@@ -2693,22 +2693,22 @@
         <v>0.8</v>
       </c>
       <c r="N12">
-        <v>2.19</v>
+        <v>2.17</v>
       </c>
       <c r="O12">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="P12">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="Q12">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
       <c r="R12">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="S12">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="T12">
         <v>0.62</v>
@@ -2720,118 +2720,118 @@
         <v>0.97</v>
       </c>
       <c r="W12">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="X12">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Y12">
-        <v>0.6</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z12">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="AA12">
-        <v>1.89</v>
+        <v>1.63</v>
       </c>
       <c r="AB12">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AC12">
         <v>0.09</v>
       </c>
       <c r="AD12">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="AE12">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AF12">
-        <v>0.73</v>
+        <v>0.62</v>
       </c>
       <c r="AG12">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="AH12">
         <v>1.09</v>
       </c>
       <c r="AI12">
-        <v>0.36</v>
+        <v>0.24</v>
       </c>
       <c r="AJ12">
         <v>0.73</v>
       </c>
       <c r="AK12">
-        <v>0.92</v>
+        <v>1.04</v>
       </c>
       <c r="AL12">
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
       <c r="AM12">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AN12">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AO12">
-        <v>0.55</v>
+        <v>0.41</v>
       </c>
       <c r="AP12">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="AQ12">
-        <v>0.39</v>
+        <v>0.49</v>
       </c>
       <c r="AR12">
+        <v>0.41</v>
+      </c>
+      <c r="AS12">
+        <v>1.53</v>
+      </c>
+      <c r="AT12">
+        <v>0.82</v>
+      </c>
+      <c r="AU12">
+        <v>1.41</v>
+      </c>
+      <c r="AV12">
+        <v>1.18</v>
+      </c>
+      <c r="AW12">
         <v>0.47</v>
       </c>
-      <c r="AS12">
-        <v>1.41</v>
-      </c>
-      <c r="AT12">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AU12">
-        <v>1.29</v>
-      </c>
-      <c r="AV12">
-        <v>1.41</v>
-      </c>
-      <c r="AW12">
+      <c r="AX12">
         <v>0.59</v>
       </c>
-      <c r="AX12">
-        <v>0.35</v>
-      </c>
       <c r="AY12">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AZ12">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="BA12">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="BB12">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="BC12">
-        <v>0.41</v>
+        <v>0.46</v>
       </c>
       <c r="BD12">
-        <v>0.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="BE12">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="BF12">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="BG12">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="BH12">
-        <v>0.79</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="13" spans="1:60">
@@ -2857,73 +2857,73 @@
         <v>1.25</v>
       </c>
       <c r="H13">
+        <v>1.32</v>
+      </c>
+      <c r="I13">
+        <v>0.68</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1.33</v>
+      </c>
+      <c r="M13">
+        <v>0.67</v>
+      </c>
+      <c r="N13">
+        <v>2.12</v>
+      </c>
+      <c r="O13">
+        <v>0.67</v>
+      </c>
+      <c r="P13">
+        <v>0.92</v>
+      </c>
+      <c r="Q13">
+        <v>0.29</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="U13">
         <v>1.29</v>
       </c>
-      <c r="I13">
-        <v>0.71</v>
-      </c>
-      <c r="J13">
-        <v>0.96</v>
-      </c>
-      <c r="K13">
-        <v>1.04</v>
-      </c>
-      <c r="L13">
-        <v>1.2</v>
-      </c>
-      <c r="M13">
-        <v>0.8</v>
-      </c>
-      <c r="N13">
-        <v>2.17</v>
-      </c>
-      <c r="O13">
-        <v>0.58</v>
-      </c>
-      <c r="P13">
-        <v>0.87</v>
-      </c>
-      <c r="Q13">
-        <v>0.39</v>
-      </c>
-      <c r="R13">
-        <v>1.17</v>
-      </c>
-      <c r="S13">
-        <v>0.83</v>
-      </c>
-      <c r="T13">
-        <v>0.62</v>
-      </c>
-      <c r="U13">
-        <v>1.41</v>
-      </c>
       <c r="V13">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="W13">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="X13">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="Y13">
-        <v>0.6899999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="Z13">
         <v>1.37</v>
       </c>
       <c r="AA13">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AB13">
         <v>0.86</v>
       </c>
       <c r="AC13">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
       <c r="AD13">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="AE13">
         <v>1.38</v>
@@ -2950,16 +2950,16 @@
         <v>0.96</v>
       </c>
       <c r="AM13">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="AN13">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AO13">
         <v>0.41</v>
       </c>
       <c r="AP13">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ13">
         <v>0.49</v>
@@ -2968,10 +2968,10 @@
         <v>0.41</v>
       </c>
       <c r="AS13">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="AT13">
-        <v>0.82</v>
+        <v>0.71</v>
       </c>
       <c r="AU13">
         <v>1.41</v>
@@ -3001,19 +3001,19 @@
         <v>0.46</v>
       </c>
       <c r="BD13">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="BE13">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="BF13">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="BG13">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="BH13">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="14" spans="1:60">
@@ -3021,34 +3021,34 @@
         <v>89</v>
       </c>
       <c r="B14">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.26</v>
+        <v>1.38</v>
       </c>
       <c r="D14">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="E14">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="F14">
-        <v>0.88</v>
+        <v>0.62</v>
       </c>
       <c r="G14">
-        <v>1.12</v>
+        <v>1.38</v>
       </c>
       <c r="H14">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="I14">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="L14">
         <v>1.2</v>
@@ -3057,145 +3057,145 @@
         <v>0.8</v>
       </c>
       <c r="N14">
-        <v>2.07</v>
+        <v>2.19</v>
       </c>
       <c r="O14">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="P14">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="Q14">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="R14">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="S14">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="T14">
-        <v>0.71</v>
+        <v>0.62</v>
       </c>
       <c r="U14">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="V14">
         <v>0.97</v>
       </c>
       <c r="W14">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="X14">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="Y14">
         <v>0.6</v>
       </c>
       <c r="Z14">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
       <c r="AA14">
-        <v>1.71</v>
+        <v>1.89</v>
       </c>
       <c r="AB14">
-        <v>0.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC14">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="AD14">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AE14">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AF14">
-        <v>0.62</v>
+        <v>0.73</v>
       </c>
       <c r="AG14">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AH14">
         <v>1.09</v>
       </c>
       <c r="AI14">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
       <c r="AJ14">
         <v>0.73</v>
       </c>
       <c r="AK14">
-        <v>1.04</v>
+        <v>0.92</v>
       </c>
       <c r="AL14">
-        <v>0.96</v>
+        <v>1.08</v>
       </c>
       <c r="AM14">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="AN14">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AO14">
-        <v>0.49</v>
+        <v>0.55</v>
       </c>
       <c r="AP14">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AQ14">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="AR14">
-        <v>0.57</v>
+        <v>0.47</v>
       </c>
       <c r="AS14">
+        <v>1.41</v>
+      </c>
+      <c r="AT14">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU14">
         <v>1.29</v>
       </c>
-      <c r="AT14">
-        <v>1.06</v>
-      </c>
-      <c r="AU14">
+      <c r="AV14">
         <v>1.41</v>
       </c>
-      <c r="AV14">
-        <v>1.18</v>
-      </c>
       <c r="AW14">
-        <v>0.47</v>
+        <v>0.59</v>
       </c>
       <c r="AX14">
-        <v>0.59</v>
+        <v>0.35</v>
       </c>
       <c r="AY14">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AZ14">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="BA14">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="BB14">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="BC14">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="BD14">
-        <v>0.63</v>
+        <v>0.87</v>
       </c>
       <c r="BE14">
-        <v>2.17</v>
+        <v>2.09</v>
       </c>
       <c r="BF14">
-        <v>0.8</v>
+        <v>0.64</v>
       </c>
       <c r="BG14">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="BH14">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="15" spans="1:60">
@@ -3206,25 +3206,25 @@
         <v>1.11</v>
       </c>
       <c r="C15">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="D15">
         <v>0.3</v>
       </c>
       <c r="E15">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="F15">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="G15">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="H15">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="I15">
-        <v>0.68</v>
+        <v>0.78</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -3233,46 +3233,46 @@
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="M15">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="N15">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="O15">
         <v>0.67</v>
       </c>
       <c r="P15">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="Q15">
         <v>0.29</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="T15">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="U15">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="V15">
-        <v>1.03</v>
+        <v>0.97</v>
       </c>
       <c r="W15">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="X15">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="Y15">
-        <v>0.51</v>
+        <v>0.6</v>
       </c>
       <c r="Z15">
         <v>1.37</v>
@@ -3284,7 +3284,7 @@
         <v>0.86</v>
       </c>
       <c r="AC15">
-        <v>0.26</v>
+        <v>0.17</v>
       </c>
       <c r="AD15">
         <v>1.29</v>
@@ -3320,22 +3320,22 @@
         <v>1.14</v>
       </c>
       <c r="AO15">
-        <v>0.41</v>
+        <v>0.49</v>
       </c>
       <c r="AP15">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AQ15">
-        <v>0.49</v>
+        <v>0.32</v>
       </c>
       <c r="AR15">
-        <v>0.41</v>
+        <v>0.57</v>
       </c>
       <c r="AS15">
-        <v>1.65</v>
+        <v>1.29</v>
       </c>
       <c r="AT15">
-        <v>0.71</v>
+        <v>1.06</v>
       </c>
       <c r="AU15">
         <v>1.41</v>
@@ -3362,16 +3362,16 @@
         <v>0.98</v>
       </c>
       <c r="BC15">
-        <v>0.46</v>
+        <v>0.4</v>
       </c>
       <c r="BD15">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="BE15">
-        <v>2.14</v>
+        <v>2.17</v>
       </c>
       <c r="BF15">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="BG15">
         <v>1.23</v>
@@ -3767,91 +3767,91 @@
         <v>1.12</v>
       </c>
       <c r="H18">
-        <v>1.1</v>
+        <v>1.32</v>
       </c>
       <c r="I18">
-        <v>0.9</v>
+        <v>0.68</v>
       </c>
       <c r="J18">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="M18">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="N18">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O18">
-        <v>0.54</v>
+        <v>0.67</v>
       </c>
       <c r="P18">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="Q18">
-        <v>0.44</v>
+        <v>0.29</v>
       </c>
       <c r="R18">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="S18">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="T18">
-        <v>0.77</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="U18">
         <v>1.29</v>
       </c>
       <c r="V18">
-        <v>0.9399999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="W18">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="X18">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="Y18">
-        <v>0.76</v>
+        <v>0.6</v>
       </c>
       <c r="Z18">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AA18">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="AB18">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AD18">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AE18">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="AF18">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="AG18">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AH18">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AI18">
         <v>0.24</v>
       </c>
       <c r="AJ18">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AK18">
         <v>1.04</v>
@@ -3860,28 +3860,28 @@
         <v>0.96</v>
       </c>
       <c r="AM18">
-        <v>2.3</v>
+        <v>2.19</v>
       </c>
       <c r="AN18">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="AO18">
         <v>0.49</v>
       </c>
       <c r="AP18">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="AQ18">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="AR18">
-        <v>0.49</v>
+        <v>0.41</v>
       </c>
       <c r="AS18">
-        <v>1.18</v>
+        <v>1.53</v>
       </c>
       <c r="AT18">
-        <v>1.18</v>
+        <v>0.82</v>
       </c>
       <c r="AU18">
         <v>1.41</v>
@@ -3896,34 +3896,34 @@
         <v>0.59</v>
       </c>
       <c r="AY18">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AZ18">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="BA18">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="BB18">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="BC18">
         <v>0.46</v>
       </c>
       <c r="BD18">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="BE18">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="BF18">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="BG18">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="BH18">
-        <v>0.64</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="19" spans="1:60">
@@ -3949,91 +3949,91 @@
         <v>1.12</v>
       </c>
       <c r="H19">
-        <v>1.32</v>
+        <v>1.1</v>
       </c>
       <c r="I19">
-        <v>0.68</v>
+        <v>0.9</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="L19">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="M19">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="N19">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O19">
-        <v>0.67</v>
+        <v>0.54</v>
       </c>
       <c r="P19">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="Q19">
-        <v>0.29</v>
+        <v>0.44</v>
       </c>
       <c r="R19">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="T19">
-        <v>0.6899999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="U19">
         <v>1.29</v>
       </c>
       <c r="V19">
-        <v>1.03</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W19">
+        <v>0.89</v>
+      </c>
+      <c r="X19">
+        <v>1.11</v>
+      </c>
+      <c r="Y19">
+        <v>0.76</v>
+      </c>
+      <c r="Z19">
+        <v>1.44</v>
+      </c>
+      <c r="AA19">
+        <v>1.69</v>
+      </c>
+      <c r="AB19">
         <v>0.85</v>
       </c>
-      <c r="X19">
-        <v>1.15</v>
-      </c>
-      <c r="Y19">
-        <v>0.6</v>
-      </c>
-      <c r="Z19">
-        <v>1.37</v>
-      </c>
-      <c r="AA19">
-        <v>1.71</v>
-      </c>
-      <c r="AB19">
-        <v>0.86</v>
-      </c>
       <c r="AC19">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="AD19">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AE19">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="AF19">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AG19">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AH19">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AI19">
         <v>0.24</v>
       </c>
       <c r="AJ19">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="AK19">
         <v>1.04</v>
@@ -4042,28 +4042,28 @@
         <v>0.96</v>
       </c>
       <c r="AM19">
-        <v>2.19</v>
+        <v>2.3</v>
       </c>
       <c r="AN19">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AO19">
         <v>0.49</v>
       </c>
       <c r="AP19">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="AQ19">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="AR19">
-        <v>0.41</v>
+        <v>0.49</v>
       </c>
       <c r="AS19">
-        <v>1.53</v>
+        <v>1.18</v>
       </c>
       <c r="AT19">
-        <v>0.82</v>
+        <v>1.18</v>
       </c>
       <c r="AU19">
         <v>1.41</v>
@@ -4078,34 +4078,34 @@
         <v>0.59</v>
       </c>
       <c r="AY19">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AZ19">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="BA19">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="BB19">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="BC19">
         <v>0.46</v>
       </c>
       <c r="BD19">
+        <v>0.63</v>
+      </c>
+      <c r="BE19">
+        <v>2</v>
+      </c>
+      <c r="BF19">
+        <v>0.91</v>
+      </c>
+      <c r="BG19">
+        <v>1.36</v>
+      </c>
+      <c r="BH19">
         <v>0.64</v>
-      </c>
-      <c r="BE19">
-        <v>2.14</v>
-      </c>
-      <c r="BF19">
-        <v>0.75</v>
-      </c>
-      <c r="BG19">
-        <v>1.23</v>
-      </c>
-      <c r="BH19">
-        <v>0.77</v>
       </c>
     </row>
     <row r="20" spans="1:60">
@@ -4295,7 +4295,7 @@
         <v>96</v>
       </c>
       <c r="B21">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C21">
         <v>1.38</v>
@@ -4304,7 +4304,7 @@
         <v>0.46</v>
       </c>
       <c r="E21">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="F21">
         <v>0.88</v>
@@ -4313,16 +4313,16 @@
         <v>1.12</v>
       </c>
       <c r="H21">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="I21">
-        <v>0.9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J21">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <v>1.2</v>
@@ -4331,22 +4331,22 @@
         <v>0.8</v>
       </c>
       <c r="N21">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O21">
         <v>0.59</v>
       </c>
       <c r="P21">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="Q21">
         <v>0.49</v>
       </c>
       <c r="R21">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="S21">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="T21">
         <v>0.92</v>
@@ -4367,109 +4367,109 @@
         <v>0.85</v>
       </c>
       <c r="Z21">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AA21">
-        <v>1.61</v>
+        <v>1.44</v>
       </c>
       <c r="AB21">
-        <v>0.85</v>
+        <v>0.76</v>
       </c>
       <c r="AC21">
         <v>0.25</v>
       </c>
       <c r="AD21">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AE21">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="AF21">
-        <v>0.6899999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AG21">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AH21">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AI21">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="AJ21">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
       <c r="AK21">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="AL21">
-        <v>0.8100000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="AM21">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="AN21">
         <v>1.73</v>
       </c>
       <c r="AO21">
-        <v>0.41</v>
+        <v>0.49</v>
       </c>
       <c r="AP21">
-        <v>1.15</v>
+        <v>1.32</v>
       </c>
       <c r="AQ21">
         <v>0.49</v>
       </c>
       <c r="AR21">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AS21">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT21">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="AU21">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AV21">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="AW21">
         <v>0.11</v>
       </c>
       <c r="AX21">
-        <v>0.89</v>
+        <v>0.76</v>
       </c>
       <c r="AY21">
         <v>1.13</v>
       </c>
       <c r="AZ21">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="BA21">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="BB21">
-        <v>1.13</v>
+        <v>0.98</v>
       </c>
       <c r="BC21">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="BD21">
-        <v>0.87</v>
+        <v>0.99</v>
       </c>
       <c r="BE21">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="BF21">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="BG21">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="BH21">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="22" spans="1:60">
@@ -4477,7 +4477,7 @@
         <v>97</v>
       </c>
       <c r="B22">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="C22">
         <v>1.38</v>
@@ -4486,7 +4486,7 @@
         <v>0.46</v>
       </c>
       <c r="E22">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="F22">
         <v>0.88</v>
@@ -4495,16 +4495,16 @@
         <v>1.12</v>
       </c>
       <c r="H22">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="I22">
-        <v>0.8100000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="L22">
         <v>1.2</v>
@@ -4513,22 +4513,22 @@
         <v>0.8</v>
       </c>
       <c r="N22">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O22">
         <v>0.59</v>
       </c>
       <c r="P22">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="Q22">
         <v>0.49</v>
       </c>
       <c r="R22">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="S22">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="T22">
         <v>0.92</v>
@@ -4549,109 +4549,109 @@
         <v>0.85</v>
       </c>
       <c r="Z22">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AA22">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="AB22">
-        <v>0.76</v>
+        <v>0.85</v>
       </c>
       <c r="AC22">
         <v>0.25</v>
       </c>
       <c r="AD22">
-        <v>1.27</v>
+        <v>1.1</v>
       </c>
       <c r="AE22">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AF22">
-        <v>0.5600000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AG22">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AH22">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="AI22">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="AJ22">
-        <v>0.38</v>
+        <v>0.48</v>
       </c>
       <c r="AK22">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="AL22">
-        <v>0.74</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AM22">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AN22">
         <v>1.73</v>
       </c>
       <c r="AO22">
-        <v>0.49</v>
+        <v>0.41</v>
       </c>
       <c r="AP22">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="AQ22">
         <v>0.49</v>
       </c>
       <c r="AR22">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AS22">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="AT22">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="AU22">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="AV22">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="AW22">
         <v>0.11</v>
       </c>
       <c r="AX22">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AY22">
         <v>1.13</v>
       </c>
       <c r="AZ22">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="BA22">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
       <c r="BB22">
-        <v>0.98</v>
+        <v>1.13</v>
       </c>
       <c r="BC22">
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
       <c r="BD22">
+        <v>0.87</v>
+      </c>
+      <c r="BE22">
+        <v>1.91</v>
+      </c>
+      <c r="BF22">
         <v>0.99</v>
       </c>
-      <c r="BE22">
-        <v>1.97</v>
-      </c>
-      <c r="BF22">
-        <v>0.93</v>
-      </c>
       <c r="BG22">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="BH22">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="23" spans="1:60">
@@ -5023,22 +5023,22 @@
         <v>100</v>
       </c>
       <c r="B25">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C25">
         <v>1.38</v>
       </c>
       <c r="D25">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="E25">
         <v>1.23</v>
       </c>
       <c r="F25">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>1.24</v>
@@ -5077,19 +5077,19 @@
         <v>0.76</v>
       </c>
       <c r="T25">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1.08</v>
+      </c>
+      <c r="W25">
         <v>1.11</v>
       </c>
-      <c r="V25">
-        <v>1.03</v>
-      </c>
-      <c r="W25">
-        <v>1.07</v>
-      </c>
       <c r="X25">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="Y25">
         <v>0.93</v>
@@ -5104,28 +5104,28 @@
         <v>0.68</v>
       </c>
       <c r="AC25">
-        <v>0.42</v>
+        <v>0.17</v>
       </c>
       <c r="AD25">
-        <v>1.1</v>
+        <v>1.35</v>
       </c>
       <c r="AE25">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="AF25">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="AG25">
         <v>1.88</v>
       </c>
       <c r="AH25">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="AI25">
         <v>0.5</v>
       </c>
       <c r="AJ25">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="AK25">
         <v>1.33</v>
@@ -5143,28 +5143,28 @@
         <v>0.41</v>
       </c>
       <c r="AP25">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="AQ25">
         <v>0.66</v>
       </c>
       <c r="AR25">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="AS25">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="AT25">
-        <v>0.87</v>
+        <v>0.98</v>
       </c>
       <c r="AU25">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="AV25">
         <v>1.09</v>
       </c>
       <c r="AW25">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="AX25">
         <v>1.09</v>
@@ -5173,25 +5173,25 @@
         <v>1.06</v>
       </c>
       <c r="AZ25">
-        <v>1.66</v>
+        <v>1.51</v>
       </c>
       <c r="BA25">
         <v>0.53</v>
       </c>
       <c r="BB25">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="BC25">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="BD25">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="BE25">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="BF25">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="BG25">
         <v>1.1</v>
@@ -5387,22 +5387,22 @@
         <v>102</v>
       </c>
       <c r="B27">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="C27">
         <v>1.38</v>
       </c>
       <c r="D27">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
       <c r="E27">
         <v>1.23</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="H27">
         <v>1.24</v>
@@ -5441,19 +5441,19 @@
         <v>0.76</v>
       </c>
       <c r="T27">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="V27">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="W27">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="X27">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="Y27">
         <v>0.93</v>
@@ -5468,28 +5468,28 @@
         <v>0.68</v>
       </c>
       <c r="AC27">
-        <v>0.17</v>
+        <v>0.42</v>
       </c>
       <c r="AD27">
-        <v>1.35</v>
+        <v>1.1</v>
       </c>
       <c r="AE27">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="AF27">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AG27">
         <v>1.88</v>
       </c>
       <c r="AH27">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="AI27">
         <v>0.5</v>
       </c>
       <c r="AJ27">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="AK27">
         <v>1.33</v>
@@ -5507,28 +5507,28 @@
         <v>0.41</v>
       </c>
       <c r="AP27">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="AQ27">
         <v>0.66</v>
       </c>
       <c r="AR27">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="AS27">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="AT27">
-        <v>0.98</v>
+        <v>0.87</v>
       </c>
       <c r="AU27">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AV27">
         <v>1.09</v>
       </c>
       <c r="AW27">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="AX27">
         <v>1.09</v>
@@ -5537,25 +5537,25 @@
         <v>1.06</v>
       </c>
       <c r="AZ27">
-        <v>1.51</v>
+        <v>1.66</v>
       </c>
       <c r="BA27">
         <v>0.53</v>
       </c>
       <c r="BB27">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="BC27">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="BD27">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="BE27">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="BF27">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="BG27">
         <v>1.1</v>
@@ -5972,13 +5972,13 @@
         <v>1.8</v>
       </c>
       <c r="O30">
-        <v>0.59</v>
+        <v>0.54</v>
       </c>
       <c r="P30">
         <v>1.12</v>
       </c>
       <c r="Q30">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="R30">
         <v>1.24</v>
@@ -5996,10 +5996,10 @@
         <v>1.08</v>
       </c>
       <c r="W30">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="X30">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="Y30">
         <v>0.93</v>
@@ -6095,13 +6095,13 @@
         <v>0.11</v>
       </c>
       <c r="BD30">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="BE30">
         <v>2.03</v>
       </c>
       <c r="BF30">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="BG30">
         <v>1.1</v>
@@ -6154,13 +6154,13 @@
         <v>1.8</v>
       </c>
       <c r="O31">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
       <c r="P31">
         <v>1.12</v>
       </c>
       <c r="Q31">
-        <v>0.54</v>
+        <v>0.49</v>
       </c>
       <c r="R31">
         <v>1.24</v>
@@ -6178,10 +6178,10 @@
         <v>1.08</v>
       </c>
       <c r="W31">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="X31">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="Y31">
         <v>0.93</v>
@@ -6277,13 +6277,13 @@
         <v>0.11</v>
       </c>
       <c r="BD31">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="BE31">
         <v>2.03</v>
       </c>
       <c r="BF31">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="BG31">
         <v>1.1</v>
@@ -6479,34 +6479,34 @@
         <v>108</v>
       </c>
       <c r="B33">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>1.38</v>
       </c>
       <c r="D33">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="E33">
         <v>1.23</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="H33">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="I33">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="J33">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K33">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -6533,55 +6533,55 @@
         <v>0.76</v>
       </c>
       <c r="T33">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="U33">
         <v>1</v>
       </c>
       <c r="V33">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="W33">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="X33">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="Y33">
-        <v>0.93</v>
+        <v>1.01</v>
       </c>
       <c r="Z33">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="AA33">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="AB33">
-        <v>0.68</v>
+        <v>0.59</v>
       </c>
       <c r="AC33">
         <v>0.17</v>
       </c>
       <c r="AD33">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AE33">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="AF33">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AG33">
         <v>1.88</v>
       </c>
       <c r="AH33">
-        <v>1.12</v>
+        <v>0.88</v>
       </c>
       <c r="AI33">
         <v>0.5</v>
       </c>
       <c r="AJ33">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AK33">
         <v>1.33</v>
@@ -6596,13 +6596,13 @@
         <v>1.73</v>
       </c>
       <c r="AO33">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="AP33">
         <v>1.32</v>
       </c>
       <c r="AQ33">
-        <v>0.66</v>
+        <v>0.74</v>
       </c>
       <c r="AR33">
         <v>0.33</v>
@@ -6626,28 +6626,28 @@
         <v>1.09</v>
       </c>
       <c r="AY33">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AZ33">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="BA33">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="BB33">
-        <v>0.91</v>
+        <v>0.85</v>
       </c>
       <c r="BC33">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="BD33">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="BE33">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="BF33">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="BG33">
         <v>1.1</v>
@@ -6685,10 +6685,10 @@
         <v>0.78</v>
       </c>
       <c r="J34">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K34">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -6730,46 +6730,46 @@
         <v>0.85</v>
       </c>
       <c r="Y34">
-        <v>1.01</v>
+        <v>0.93</v>
       </c>
       <c r="Z34">
         <v>1.52</v>
       </c>
       <c r="AA34">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AB34">
         <v>0.59</v>
       </c>
       <c r="AC34">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AD34">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AE34">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="AF34">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="AG34">
         <v>1.88</v>
       </c>
       <c r="AH34">
-        <v>0.88</v>
+        <v>1.12</v>
       </c>
       <c r="AI34">
         <v>0.5</v>
       </c>
       <c r="AJ34">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AK34">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AL34">
-        <v>0.67</v>
+        <v>0.74</v>
       </c>
       <c r="AM34">
         <v>1.56</v>
@@ -6843,34 +6843,34 @@
         <v>110</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="C35">
         <v>1.38</v>
       </c>
       <c r="D35">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="E35">
         <v>1.23</v>
       </c>
       <c r="F35">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="I35">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="J35">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K35">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -6897,34 +6897,34 @@
         <v>0.76</v>
       </c>
       <c r="T35">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="U35">
         <v>1</v>
       </c>
       <c r="V35">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="W35">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="X35">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="Y35">
         <v>0.93</v>
       </c>
       <c r="Z35">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="AA35">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AB35">
-        <v>0.59</v>
+        <v>0.68</v>
       </c>
       <c r="AC35">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="AD35">
         <v>1.35</v>
@@ -6948,10 +6948,10 @@
         <v>0.5</v>
       </c>
       <c r="AK35">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AL35">
-        <v>0.74</v>
+        <v>0.67</v>
       </c>
       <c r="AM35">
         <v>1.56</v>
@@ -6960,13 +6960,13 @@
         <v>1.73</v>
       </c>
       <c r="AO35">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="AP35">
         <v>1.32</v>
       </c>
       <c r="AQ35">
-        <v>0.74</v>
+        <v>0.66</v>
       </c>
       <c r="AR35">
         <v>0.33</v>
@@ -6990,28 +6990,28 @@
         <v>1.09</v>
       </c>
       <c r="AY35">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AZ35">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="BA35">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="BB35">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="BC35">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="BD35">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="BE35">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="BF35">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="BG35">
         <v>1.1</v>
@@ -7428,13 +7428,13 @@
         <v>1.8</v>
       </c>
       <c r="O38">
-        <v>0.59</v>
+        <v>0.54</v>
       </c>
       <c r="P38">
         <v>1.12</v>
       </c>
       <c r="Q38">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="R38">
         <v>1.24</v>
@@ -7610,13 +7610,13 @@
         <v>1.8</v>
       </c>
       <c r="O39">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
       <c r="P39">
         <v>1.12</v>
       </c>
       <c r="Q39">
-        <v>0.54</v>
+        <v>0.49</v>
       </c>
       <c r="R39">
         <v>1.24</v>
@@ -7753,34 +7753,34 @@
         <v>115</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="C40">
         <v>1.38</v>
       </c>
       <c r="D40">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="E40">
         <v>1.23</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="H40">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="I40">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="J40">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K40">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -7789,13 +7789,13 @@
         <v>1</v>
       </c>
       <c r="N40">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="O40">
         <v>0.59</v>
       </c>
       <c r="P40">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="Q40">
         <v>0.49</v>
@@ -7807,13 +7807,13 @@
         <v>0.76</v>
       </c>
       <c r="T40">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="U40">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="V40">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="W40">
         <v>1.15</v>
@@ -7822,13 +7822,13 @@
         <v>0.85</v>
       </c>
       <c r="Y40">
-        <v>1.01</v>
+        <v>0.93</v>
       </c>
       <c r="Z40">
         <v>1.52</v>
       </c>
       <c r="AA40">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AB40">
         <v>0.59</v>
@@ -7840,10 +7840,10 @@
         <v>1.35</v>
       </c>
       <c r="AE40">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AF40">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="AG40">
         <v>1.88</v>
@@ -7912,13 +7912,13 @@
         <v>0.91</v>
       </c>
       <c r="BC40">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="BD40">
         <v>0.9</v>
       </c>
       <c r="BE40">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="BF40">
         <v>0.96</v>
@@ -8117,34 +8117,34 @@
         <v>117</v>
       </c>
       <c r="B42">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>1.38</v>
       </c>
       <c r="D42">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="E42">
         <v>1.23</v>
       </c>
       <c r="F42">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="I42">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -8153,13 +8153,13 @@
         <v>1</v>
       </c>
       <c r="N42">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="O42">
         <v>0.59</v>
       </c>
       <c r="P42">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="Q42">
         <v>0.49</v>
@@ -8171,13 +8171,13 @@
         <v>0.76</v>
       </c>
       <c r="T42">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="U42">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="V42">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="W42">
         <v>1.15</v>
@@ -8186,13 +8186,13 @@
         <v>0.85</v>
       </c>
       <c r="Y42">
-        <v>0.93</v>
+        <v>1.01</v>
       </c>
       <c r="Z42">
         <v>1.52</v>
       </c>
       <c r="AA42">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AB42">
         <v>0.59</v>
@@ -8204,10 +8204,10 @@
         <v>1.35</v>
       </c>
       <c r="AE42">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="AF42">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="AG42">
         <v>1.88</v>
@@ -8276,13 +8276,13 @@
         <v>0.91</v>
       </c>
       <c r="BC42">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="BD42">
         <v>0.9</v>
       </c>
       <c r="BE42">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="BF42">
         <v>0.96</v>
@@ -9227,10 +9227,10 @@
         <v>0.88</v>
       </c>
       <c r="H48">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="I48">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="J48">
         <v>1.03</v>
@@ -9278,13 +9278,13 @@
         <v>0.85</v>
       </c>
       <c r="Y48">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="Z48">
         <v>1.44</v>
       </c>
       <c r="AA48">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="AB48">
         <v>0.68</v>
@@ -9409,10 +9409,10 @@
         <v>0.88</v>
       </c>
       <c r="H49">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="I49">
-        <v>0.76</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J49">
         <v>1.03</v>
@@ -9460,13 +9460,13 @@
         <v>0.85</v>
       </c>
       <c r="Y49">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="Z49">
         <v>1.44</v>
       </c>
       <c r="AA49">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="AB49">
         <v>0.68</v>
@@ -10683,10 +10683,10 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="I56">
-        <v>0.8100000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="J56">
         <v>1.05</v>
@@ -10752,10 +10752,10 @@
         <v>1.35</v>
       </c>
       <c r="AE56">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="AF56">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="AG56">
         <v>1.88</v>
@@ -10865,10 +10865,10 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="I57">
-        <v>0.84</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J57">
         <v>1.05</v>
@@ -10934,10 +10934,10 @@
         <v>1.35</v>
       </c>
       <c r="AE57">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="AF57">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="AG57">
         <v>1.88</v>
@@ -13759,16 +13759,16 @@
         <v>148</v>
       </c>
       <c r="B73">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="C73">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="D73">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
       <c r="E73">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -13777,16 +13777,16 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="I73">
-        <v>0.76</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J73">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K73">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="L73">
         <v>1</v>
@@ -13795,13 +13795,13 @@
         <v>1</v>
       </c>
       <c r="N73">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O73">
         <v>0.59</v>
       </c>
       <c r="P73">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="Q73">
         <v>0.49</v>
@@ -13864,10 +13864,10 @@
         <v>0.5</v>
       </c>
       <c r="AK73">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AL73">
-        <v>0.67</v>
+        <v>0.74</v>
       </c>
       <c r="AM73">
         <v>1.56</v>
@@ -13906,16 +13906,16 @@
         <v>1.09</v>
       </c>
       <c r="AY73">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AZ73">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="BA73">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
       <c r="BB73">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="BC73">
         <v>0.11</v>
@@ -13941,16 +13941,16 @@
         <v>149</v>
       </c>
       <c r="B74">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="C74">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="D74">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
       <c r="E74">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -13959,16 +13959,16 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="I74">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="J74">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K74">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -13977,13 +13977,13 @@
         <v>1</v>
       </c>
       <c r="N74">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="O74">
         <v>0.59</v>
       </c>
       <c r="P74">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="Q74">
         <v>0.49</v>
@@ -14046,10 +14046,10 @@
         <v>0.5</v>
       </c>
       <c r="AK74">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AL74">
-        <v>0.74</v>
+        <v>0.67</v>
       </c>
       <c r="AM74">
         <v>1.56</v>
@@ -14088,16 +14088,16 @@
         <v>1.09</v>
       </c>
       <c r="AY74">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AZ74">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="BA74">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
       <c r="BB74">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="BC74">
         <v>0.11</v>

--- a/test/results/01.BasicCodonUsage/NS5/NS5.RSCU.xlsx
+++ b/test/results/01.BasicCodonUsage/NS5/NS5.RSCU.xlsx
@@ -253,16 +253,16 @@
     <t>TAT</t>
   </si>
   <si>
-    <t>KF383118</t>
-  </si>
-  <si>
-    <t>LC002520</t>
+    <t>KF383119</t>
   </si>
   <si>
     <t>KU955594</t>
   </si>
   <si>
-    <t>KF383119</t>
+    <t>KF383118</t>
+  </si>
+  <si>
+    <t>LC002520</t>
   </si>
   <si>
     <t>KF383115</t>
@@ -271,22 +271,22 @@
     <t>KF268949</t>
   </si>
   <si>
+    <t>KF268948</t>
+  </si>
+  <si>
     <t>KF268950</t>
   </si>
   <si>
-    <t>KF268948</t>
+    <t>HQ234500</t>
   </si>
   <si>
     <t>KF383116</t>
   </si>
   <si>
-    <t>KU955595</t>
+    <t>HQ234501</t>
   </si>
   <si>
-    <t>HQ234500</t>
-  </si>
-  <si>
-    <t>HQ234501</t>
+    <t>KU955595</t>
   </si>
   <si>
     <t>KU955592</t>
@@ -304,10 +304,10 @@
     <t>HQ234499</t>
   </si>
   <si>
-    <t>EU545988</t>
+    <t>KU681082</t>
   </si>
   <si>
-    <t>KU681082</t>
+    <t>EU545988</t>
   </si>
   <si>
     <t>KU955593</t>
@@ -316,13 +316,13 @@
     <t>KX694532</t>
   </si>
   <si>
+    <t>KU681081</t>
+  </si>
+  <si>
     <t>KX447517</t>
   </si>
   <si>
     <t>KX813683</t>
-  </si>
-  <si>
-    <t>KU681081</t>
   </si>
   <si>
     <t>KU744693</t>
@@ -331,13 +331,16 @@
     <t>KX197192</t>
   </si>
   <si>
+    <t>KU509998</t>
+  </si>
+  <si>
     <t>KU321639</t>
   </si>
   <si>
-    <t>KU509998</t>
+    <t>KU527068</t>
   </si>
   <si>
-    <t>KU527068</t>
+    <t>KX051563</t>
   </si>
   <si>
     <t>KX838906</t>
@@ -346,34 +349,28 @@
     <t>KX673530</t>
   </si>
   <si>
-    <t>KX051563</t>
+    <t>KX838904</t>
   </si>
   <si>
-    <t>KX838904</t>
+    <t>KX838905</t>
   </si>
   <si>
     <t>KX832731</t>
   </si>
   <si>
-    <t>KX838905</t>
+    <t>KX842449</t>
   </si>
   <si>
-    <t>KX842449</t>
+    <t>KU853012</t>
+  </si>
+  <si>
+    <t>KU853013</t>
   </si>
   <si>
     <t>KU729217</t>
   </si>
   <si>
-    <t>KU853013</t>
-  </si>
-  <si>
-    <t>KU853012</t>
-  </si>
-  <si>
     <t>KX280026</t>
-  </si>
-  <si>
-    <t>KX056898</t>
   </si>
   <si>
     <t>KU955590</t>
@@ -385,10 +382,13 @@
     <t>KU740184</t>
   </si>
   <si>
-    <t>KU820898</t>
+    <t>KX056898</t>
   </si>
   <si>
     <t>KU761564</t>
+  </si>
+  <si>
+    <t>KU820898</t>
   </si>
   <si>
     <t>KX087101</t>
@@ -409,13 +409,13 @@
     <t>KU365779</t>
   </si>
   <si>
-    <t>KU365777</t>
-  </si>
-  <si>
     <t>KU707826</t>
   </si>
   <si>
     <t>KU365780</t>
+  </si>
+  <si>
+    <t>KU365777</t>
   </si>
   <si>
     <t>KU870645</t>
@@ -433,22 +433,22 @@
     <t>KU501216</t>
   </si>
   <si>
-    <t>KX766029</t>
+    <t>KX247632</t>
   </si>
   <si>
     <t>KX446950</t>
   </si>
   <si>
-    <t>KX247632</t>
+    <t>KX766029</t>
   </si>
   <si>
     <t>KX446951</t>
   </si>
   <si>
-    <t>KU940228</t>
+    <t>KX520666</t>
   </si>
   <si>
-    <t>KX520666</t>
+    <t>KU940228</t>
   </si>
   <si>
     <t>KU729218</t>
@@ -472,25 +472,25 @@
     <t>KU922923</t>
   </si>
   <si>
+    <t>KX702400</t>
+  </si>
+  <si>
     <t>KU922960</t>
   </si>
   <si>
     <t>KX198135</t>
   </si>
   <si>
-    <t>KX702400</t>
-  </si>
-  <si>
     <t>KX247646</t>
-  </si>
-  <si>
-    <t>KU820897</t>
   </si>
   <si>
     <t>KX087102</t>
   </si>
   <si>
     <t>KX156775</t>
+  </si>
+  <si>
+    <t>KU820897</t>
   </si>
   <si>
     <t>KX156774</t>
@@ -520,10 +520,10 @@
     <t>KU866423</t>
   </si>
   <si>
-    <t>KU955589</t>
+    <t>KX266255</t>
   </si>
   <si>
-    <t>KX266255</t>
+    <t>KU955589</t>
   </si>
   <si>
     <t>KU820899</t>
@@ -532,10 +532,10 @@
     <t>KX185891</t>
   </si>
   <si>
-    <t>KU963796</t>
+    <t>KX806557</t>
   </si>
   <si>
-    <t>KX806557</t>
+    <t>KU963796</t>
   </si>
   <si>
     <t>KJ776791</t>
@@ -1201,16 +1201,16 @@
         <v>79</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="C4">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="D4">
         <v>0.38</v>
       </c>
       <c r="E4">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="F4">
         <v>0.75</v>
@@ -1219,40 +1219,40 @@
         <v>1.25</v>
       </c>
       <c r="H4">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="I4">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="J4">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="K4">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="L4">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="M4">
+        <v>0.74</v>
+      </c>
+      <c r="N4">
+        <v>2.1</v>
+      </c>
+      <c r="O4">
+        <v>0.52</v>
+      </c>
+      <c r="P4">
         <v>0.95</v>
-      </c>
-      <c r="N4">
-        <v>2.02</v>
-      </c>
-      <c r="O4">
-        <v>0.53</v>
-      </c>
-      <c r="P4">
-        <v>1.01</v>
       </c>
       <c r="Q4">
         <v>0.43</v>
       </c>
       <c r="R4">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="T4">
         <v>0.73</v>
@@ -1276,22 +1276,22 @@
         <v>1.52</v>
       </c>
       <c r="AA4">
-        <v>2.28</v>
+        <v>2.03</v>
       </c>
       <c r="AB4">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
       <c r="AC4">
         <v>0.34</v>
       </c>
       <c r="AD4">
-        <v>0.93</v>
+        <v>1.1</v>
       </c>
       <c r="AE4">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="AF4">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
       <c r="AG4">
         <v>1.94</v>
@@ -1312,31 +1312,31 @@
         <v>0.96</v>
       </c>
       <c r="AM4">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="AN4">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AO4">
         <v>0.49</v>
       </c>
       <c r="AP4">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AQ4">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="AR4">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="AS4">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AT4">
         <v>0.92</v>
       </c>
       <c r="AU4">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="AV4">
         <v>1.15</v>
@@ -1458,7 +1458,7 @@
         <v>1.52</v>
       </c>
       <c r="AA5">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="AB5">
         <v>0.76</v>
@@ -1467,7 +1467,7 @@
         <v>0.42</v>
       </c>
       <c r="AD5">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="AE5">
         <v>1.31</v>
@@ -1565,16 +1565,16 @@
         <v>81</v>
       </c>
       <c r="B6">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="D6">
         <v>0.38</v>
       </c>
       <c r="E6">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="F6">
         <v>0.75</v>
@@ -1583,79 +1583,79 @@
         <v>1.25</v>
       </c>
       <c r="H6">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="I6">
-        <v>0.76</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J6">
+        <v>0.96</v>
+      </c>
+      <c r="K6">
+        <v>1.04</v>
+      </c>
+      <c r="L6">
+        <v>1.05</v>
+      </c>
+      <c r="M6">
+        <v>0.95</v>
+      </c>
+      <c r="N6">
+        <v>2.02</v>
+      </c>
+      <c r="O6">
+        <v>0.53</v>
+      </c>
+      <c r="P6">
         <v>1.01</v>
       </c>
-      <c r="K6">
-        <v>0.99</v>
-      </c>
-      <c r="L6">
-        <v>1.26</v>
-      </c>
-      <c r="M6">
-        <v>0.74</v>
-      </c>
-      <c r="N6">
-        <v>2.12</v>
-      </c>
-      <c r="O6">
+      <c r="Q6">
         <v>0.43</v>
       </c>
-      <c r="P6">
-        <v>0.96</v>
-      </c>
-      <c r="Q6">
-        <v>0.48</v>
-      </c>
       <c r="R6">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="S6">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="T6">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
       <c r="U6">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="V6">
+        <v>0.91</v>
+      </c>
+      <c r="W6">
+        <v>1.06</v>
+      </c>
+      <c r="X6">
         <v>0.9399999999999999</v>
       </c>
-      <c r="W6">
-        <v>1.02</v>
-      </c>
-      <c r="X6">
-        <v>0.98</v>
-      </c>
       <c r="Y6">
-        <v>0.34</v>
+        <v>0.25</v>
       </c>
       <c r="Z6">
         <v>1.52</v>
       </c>
       <c r="AA6">
-        <v>1.86</v>
+        <v>2.28</v>
       </c>
       <c r="AB6">
-        <v>0.76</v>
+        <v>0.68</v>
       </c>
       <c r="AC6">
-        <v>0.42</v>
+        <v>0.34</v>
       </c>
       <c r="AD6">
-        <v>1.1</v>
+        <v>0.93</v>
       </c>
       <c r="AE6">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AF6">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AG6">
         <v>1.94</v>
@@ -1670,46 +1670,46 @@
         <v>0.61</v>
       </c>
       <c r="AK6">
-        <v>1.15</v>
+        <v>1.04</v>
       </c>
       <c r="AL6">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="AM6">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="AN6">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AO6">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="AP6">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AQ6">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="AR6">
         <v>0.32</v>
       </c>
       <c r="AS6">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AT6">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="AU6">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AV6">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AW6">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="AX6">
-        <v>0.82</v>
+        <v>0.92</v>
       </c>
       <c r="AY6">
         <v>1.41</v>
@@ -1724,22 +1724,22 @@
         <v>1.19</v>
       </c>
       <c r="BC6">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="BD6">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="BE6">
-        <v>2.29</v>
+        <v>2.2</v>
       </c>
       <c r="BF6">
-        <v>0.6899999999999999</v>
+        <v>0.73</v>
       </c>
       <c r="BG6">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="BH6">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="7" spans="1:60">
@@ -1771,10 +1771,10 @@
         <v>0.76</v>
       </c>
       <c r="J7">
-        <v>0.93</v>
+        <v>1.01</v>
       </c>
       <c r="K7">
-        <v>1.07</v>
+        <v>0.99</v>
       </c>
       <c r="L7">
         <v>1.26</v>
@@ -1783,61 +1783,61 @@
         <v>0.74</v>
       </c>
       <c r="N7">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O7">
-        <v>0.52</v>
+        <v>0.43</v>
       </c>
       <c r="P7">
+        <v>0.96</v>
+      </c>
+      <c r="Q7">
+        <v>0.48</v>
+      </c>
+      <c r="R7">
+        <v>1.05</v>
+      </c>
+      <c r="S7">
         <v>0.95</v>
       </c>
-      <c r="Q7">
-        <v>0.43</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
       <c r="T7">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="U7">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="V7">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W7">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="X7">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="Y7">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
       <c r="Z7">
         <v>1.52</v>
       </c>
       <c r="AA7">
-        <v>2.03</v>
+        <v>1.77</v>
       </c>
       <c r="AB7">
         <v>0.76</v>
       </c>
       <c r="AC7">
-        <v>0.34</v>
+        <v>0.42</v>
       </c>
       <c r="AD7">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AE7">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="AF7">
-        <v>0.65</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AG7">
         <v>1.94</v>
@@ -1852,46 +1852,46 @@
         <v>0.61</v>
       </c>
       <c r="AK7">
-        <v>1.04</v>
+        <v>1.15</v>
       </c>
       <c r="AL7">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="AM7">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="AN7">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AO7">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="AP7">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ7">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="AR7">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AS7">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AT7">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU7">
-        <v>1.04</v>
+        <v>1.18</v>
       </c>
       <c r="AV7">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="AW7">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="AX7">
-        <v>0.92</v>
+        <v>0.82</v>
       </c>
       <c r="AY7">
         <v>1.41</v>
@@ -1906,22 +1906,22 @@
         <v>1.19</v>
       </c>
       <c r="BC7">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
       <c r="BD7">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="BE7">
-        <v>2.2</v>
+        <v>2.29</v>
       </c>
       <c r="BF7">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="BG7">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="BH7">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="8" spans="1:60">
@@ -2305,10 +2305,10 @@
         <v>1.31</v>
       </c>
       <c r="F10">
-        <v>0.71</v>
+        <v>0.59</v>
       </c>
       <c r="G10">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="H10">
         <v>1.19</v>
@@ -2380,10 +2380,10 @@
         <v>1.03</v>
       </c>
       <c r="AE10">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AF10">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="AG10">
         <v>1.82</v>
@@ -2487,10 +2487,10 @@
         <v>1.31</v>
       </c>
       <c r="F11">
-        <v>0.59</v>
+        <v>0.71</v>
       </c>
       <c r="G11">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="H11">
         <v>1.19</v>
@@ -2562,10 +2562,10 @@
         <v>1.03</v>
       </c>
       <c r="AE11">
-        <v>1.16</v>
+        <v>1.1</v>
       </c>
       <c r="AF11">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="AG11">
         <v>1.82</v>
@@ -2657,34 +2657,34 @@
         <v>87</v>
       </c>
       <c r="B12">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.19</v>
+        <v>1.38</v>
       </c>
       <c r="D12">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="E12">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="F12">
-        <v>0.75</v>
+        <v>0.62</v>
       </c>
       <c r="G12">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="H12">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="I12">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="J12">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="K12">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="L12">
         <v>1.2</v>
@@ -2693,22 +2693,22 @@
         <v>0.8</v>
       </c>
       <c r="N12">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="O12">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="P12">
+        <v>0.9</v>
+      </c>
+      <c r="Q12">
+        <v>0.33</v>
+      </c>
+      <c r="R12">
+        <v>1.13</v>
+      </c>
+      <c r="S12">
         <v>0.87</v>
-      </c>
-      <c r="Q12">
-        <v>0.39</v>
-      </c>
-      <c r="R12">
-        <v>1.17</v>
-      </c>
-      <c r="S12">
-        <v>0.83</v>
       </c>
       <c r="T12">
         <v>0.62</v>
@@ -2720,118 +2720,118 @@
         <v>0.97</v>
       </c>
       <c r="W12">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="X12">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Y12">
+        <v>0.6</v>
+      </c>
+      <c r="Z12">
+        <v>1.54</v>
+      </c>
+      <c r="AA12">
+        <v>1.89</v>
+      </c>
+      <c r="AB12">
         <v>0.6899999999999999</v>
-      </c>
-      <c r="Z12">
-        <v>1.37</v>
-      </c>
-      <c r="AA12">
-        <v>1.63</v>
-      </c>
-      <c r="AB12">
-        <v>0.86</v>
       </c>
       <c r="AC12">
         <v>0.09</v>
       </c>
       <c r="AD12">
-        <v>1.37</v>
+        <v>1.2</v>
       </c>
       <c r="AE12">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AF12">
-        <v>0.62</v>
+        <v>0.73</v>
       </c>
       <c r="AG12">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AH12">
         <v>1.09</v>
       </c>
       <c r="AI12">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
       <c r="AJ12">
         <v>0.73</v>
       </c>
       <c r="AK12">
-        <v>1.04</v>
+        <v>0.92</v>
       </c>
       <c r="AL12">
-        <v>0.96</v>
+        <v>1.08</v>
       </c>
       <c r="AM12">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="AN12">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="AO12">
+        <v>0.55</v>
+      </c>
+      <c r="AP12">
+        <v>1.17</v>
+      </c>
+      <c r="AQ12">
+        <v>0.39</v>
+      </c>
+      <c r="AR12">
+        <v>0.47</v>
+      </c>
+      <c r="AS12">
+        <v>1.41</v>
+      </c>
+      <c r="AT12">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU12">
+        <v>1.29</v>
+      </c>
+      <c r="AV12">
+        <v>1.41</v>
+      </c>
+      <c r="AW12">
+        <v>0.59</v>
+      </c>
+      <c r="AX12">
+        <v>0.35</v>
+      </c>
+      <c r="AY12">
+        <v>1.38</v>
+      </c>
+      <c r="AZ12">
+        <v>1.31</v>
+      </c>
+      <c r="BA12">
+        <v>0.31</v>
+      </c>
+      <c r="BB12">
+        <v>1</v>
+      </c>
+      <c r="BC12">
         <v>0.41</v>
       </c>
-      <c r="AP12">
-        <v>1.32</v>
-      </c>
-      <c r="AQ12">
-        <v>0.49</v>
-      </c>
-      <c r="AR12">
-        <v>0.41</v>
-      </c>
-      <c r="AS12">
-        <v>1.53</v>
-      </c>
-      <c r="AT12">
-        <v>0.82</v>
-      </c>
-      <c r="AU12">
-        <v>1.41</v>
-      </c>
-      <c r="AV12">
-        <v>1.18</v>
-      </c>
-      <c r="AW12">
-        <v>0.47</v>
-      </c>
-      <c r="AX12">
-        <v>0.59</v>
-      </c>
-      <c r="AY12">
-        <v>1.43</v>
-      </c>
-      <c r="AZ12">
-        <v>1.28</v>
-      </c>
-      <c r="BA12">
-        <v>0.3</v>
-      </c>
-      <c r="BB12">
-        <v>0.98</v>
-      </c>
-      <c r="BC12">
-        <v>0.46</v>
-      </c>
       <c r="BD12">
-        <v>0.6899999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="BE12">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="BF12">
-        <v>0.8</v>
+        <v>0.64</v>
       </c>
       <c r="BG12">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="BH12">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="13" spans="1:60">
@@ -2857,73 +2857,73 @@
         <v>1.25</v>
       </c>
       <c r="H13">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="I13">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="L13">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="M13">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="N13">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="O13">
-        <v>0.67</v>
+        <v>0.58</v>
       </c>
       <c r="P13">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="Q13">
-        <v>0.29</v>
+        <v>0.39</v>
       </c>
       <c r="R13">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="T13">
+        <v>0.62</v>
+      </c>
+      <c r="U13">
+        <v>1.41</v>
+      </c>
+      <c r="V13">
+        <v>0.97</v>
+      </c>
+      <c r="W13">
+        <v>0.95</v>
+      </c>
+      <c r="X13">
+        <v>1.05</v>
+      </c>
+      <c r="Y13">
         <v>0.6899999999999999</v>
-      </c>
-      <c r="U13">
-        <v>1.29</v>
-      </c>
-      <c r="V13">
-        <v>1.03</v>
-      </c>
-      <c r="W13">
-        <v>0.89</v>
-      </c>
-      <c r="X13">
-        <v>1.11</v>
-      </c>
-      <c r="Y13">
-        <v>0.51</v>
       </c>
       <c r="Z13">
         <v>1.37</v>
       </c>
       <c r="AA13">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AB13">
         <v>0.86</v>
       </c>
       <c r="AC13">
-        <v>0.26</v>
+        <v>0.09</v>
       </c>
       <c r="AD13">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="AE13">
         <v>1.38</v>
@@ -2950,16 +2950,16 @@
         <v>0.96</v>
       </c>
       <c r="AM13">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="AN13">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AO13">
         <v>0.41</v>
       </c>
       <c r="AP13">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AQ13">
         <v>0.49</v>
@@ -2968,10 +2968,10 @@
         <v>0.41</v>
       </c>
       <c r="AS13">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="AT13">
-        <v>0.71</v>
+        <v>0.82</v>
       </c>
       <c r="AU13">
         <v>1.41</v>
@@ -3001,19 +3001,19 @@
         <v>0.46</v>
       </c>
       <c r="BD13">
-        <v>0.64</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="BE13">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="BF13">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="BG13">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="BH13">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="14" spans="1:60">
@@ -3021,34 +3021,34 @@
         <v>89</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="C14">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="D14">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="E14">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="F14">
-        <v>0.62</v>
+        <v>0.88</v>
       </c>
       <c r="G14">
-        <v>1.38</v>
+        <v>1.12</v>
       </c>
       <c r="H14">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="I14">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="J14">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>1.2</v>
@@ -3057,145 +3057,145 @@
         <v>0.8</v>
       </c>
       <c r="N14">
-        <v>2.19</v>
+        <v>2.07</v>
       </c>
       <c r="O14">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="P14">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="Q14">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="R14">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="S14">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
       <c r="T14">
-        <v>0.62</v>
+        <v>0.71</v>
       </c>
       <c r="U14">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="V14">
         <v>0.97</v>
       </c>
       <c r="W14">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="X14">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="Y14">
         <v>0.6</v>
       </c>
       <c r="Z14">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="AA14">
-        <v>1.89</v>
+        <v>1.71</v>
       </c>
       <c r="AB14">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AC14">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="AD14">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AE14">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AF14">
-        <v>0.73</v>
+        <v>0.62</v>
       </c>
       <c r="AG14">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="AH14">
         <v>1.09</v>
       </c>
       <c r="AI14">
-        <v>0.36</v>
+        <v>0.24</v>
       </c>
       <c r="AJ14">
         <v>0.73</v>
       </c>
       <c r="AK14">
-        <v>0.92</v>
+        <v>1.04</v>
       </c>
       <c r="AL14">
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
       <c r="AM14">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="AN14">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AO14">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="AP14">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AQ14">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="AR14">
+        <v>0.57</v>
+      </c>
+      <c r="AS14">
+        <v>1.29</v>
+      </c>
+      <c r="AT14">
+        <v>1.06</v>
+      </c>
+      <c r="AU14">
+        <v>1.41</v>
+      </c>
+      <c r="AV14">
+        <v>1.18</v>
+      </c>
+      <c r="AW14">
         <v>0.47</v>
       </c>
-      <c r="AS14">
-        <v>1.41</v>
-      </c>
-      <c r="AT14">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AU14">
-        <v>1.29</v>
-      </c>
-      <c r="AV14">
-        <v>1.41</v>
-      </c>
-      <c r="AW14">
+      <c r="AX14">
         <v>0.59</v>
       </c>
-      <c r="AX14">
-        <v>0.35</v>
-      </c>
       <c r="AY14">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AZ14">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="BA14">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="BB14">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="BC14">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="BD14">
-        <v>0.87</v>
+        <v>0.63</v>
       </c>
       <c r="BE14">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="BF14">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="BG14">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="BH14">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="15" spans="1:60">
@@ -3206,73 +3206,73 @@
         <v>1.11</v>
       </c>
       <c r="C15">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="D15">
         <v>0.3</v>
       </c>
       <c r="E15">
+        <v>1.41</v>
+      </c>
+      <c r="F15">
+        <v>0.75</v>
+      </c>
+      <c r="G15">
+        <v>1.25</v>
+      </c>
+      <c r="H15">
+        <v>1.32</v>
+      </c>
+      <c r="I15">
+        <v>0.68</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <v>1.33</v>
       </c>
-      <c r="F15">
-        <v>0.88</v>
-      </c>
-      <c r="G15">
-        <v>1.12</v>
-      </c>
-      <c r="H15">
-        <v>1.22</v>
-      </c>
-      <c r="I15">
-        <v>0.78</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1.2</v>
-      </c>
       <c r="M15">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="N15">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="O15">
         <v>0.67</v>
       </c>
       <c r="P15">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="Q15">
         <v>0.29</v>
       </c>
       <c r="R15">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="U15">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="V15">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="W15">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="X15">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="Y15">
-        <v>0.6</v>
+        <v>0.51</v>
       </c>
       <c r="Z15">
         <v>1.37</v>
@@ -3284,7 +3284,7 @@
         <v>0.86</v>
       </c>
       <c r="AC15">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="AD15">
         <v>1.29</v>
@@ -3320,22 +3320,22 @@
         <v>1.14</v>
       </c>
       <c r="AO15">
+        <v>0.41</v>
+      </c>
+      <c r="AP15">
+        <v>1.3</v>
+      </c>
+      <c r="AQ15">
         <v>0.49</v>
       </c>
-      <c r="AP15">
-        <v>1.22</v>
-      </c>
-      <c r="AQ15">
-        <v>0.32</v>
-      </c>
       <c r="AR15">
-        <v>0.57</v>
+        <v>0.41</v>
       </c>
       <c r="AS15">
-        <v>1.29</v>
+        <v>1.65</v>
       </c>
       <c r="AT15">
-        <v>1.06</v>
+        <v>0.71</v>
       </c>
       <c r="AU15">
         <v>1.41</v>
@@ -3362,16 +3362,16 @@
         <v>0.98</v>
       </c>
       <c r="BC15">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="BD15">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="BE15">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
       <c r="BF15">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="BG15">
         <v>1.23</v>
@@ -4295,7 +4295,7 @@
         <v>96</v>
       </c>
       <c r="B21">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="C21">
         <v>1.38</v>
@@ -4304,7 +4304,7 @@
         <v>0.46</v>
       </c>
       <c r="E21">
-        <v>1.31</v>
+        <v>1.23</v>
       </c>
       <c r="F21">
         <v>0.88</v>
@@ -4313,16 +4313,16 @@
         <v>1.12</v>
       </c>
       <c r="H21">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="I21">
-        <v>0.8100000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="L21">
         <v>1.2</v>
@@ -4331,22 +4331,22 @@
         <v>0.8</v>
       </c>
       <c r="N21">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O21">
         <v>0.59</v>
       </c>
       <c r="P21">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="Q21">
         <v>0.49</v>
       </c>
       <c r="R21">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="S21">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="T21">
         <v>0.92</v>
@@ -4367,109 +4367,109 @@
         <v>0.85</v>
       </c>
       <c r="Z21">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AA21">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="AB21">
-        <v>0.76</v>
+        <v>0.85</v>
       </c>
       <c r="AC21">
         <v>0.25</v>
       </c>
       <c r="AD21">
-        <v>1.27</v>
+        <v>1.1</v>
       </c>
       <c r="AE21">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="AF21">
-        <v>0.5600000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AG21">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AH21">
-        <v>1.25</v>
+        <v>1.09</v>
       </c>
       <c r="AI21">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="AJ21">
-        <v>0.38</v>
+        <v>0.48</v>
       </c>
       <c r="AK21">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="AL21">
-        <v>0.74</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AM21">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AN21">
         <v>1.73</v>
       </c>
       <c r="AO21">
-        <v>0.49</v>
+        <v>0.41</v>
       </c>
       <c r="AP21">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="AQ21">
         <v>0.49</v>
       </c>
       <c r="AR21">
-        <v>0.33</v>
+        <v>0.49</v>
       </c>
       <c r="AS21">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="AT21">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="AU21">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="AV21">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="AW21">
         <v>0.11</v>
       </c>
       <c r="AX21">
-        <v>0.76</v>
+        <v>0.89</v>
       </c>
       <c r="AY21">
         <v>1.13</v>
       </c>
       <c r="AZ21">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="BA21">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
       <c r="BB21">
-        <v>0.98</v>
+        <v>1.13</v>
       </c>
       <c r="BC21">
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
       <c r="BD21">
+        <v>0.87</v>
+      </c>
+      <c r="BE21">
+        <v>1.91</v>
+      </c>
+      <c r="BF21">
         <v>0.99</v>
       </c>
-      <c r="BE21">
-        <v>1.97</v>
-      </c>
-      <c r="BF21">
-        <v>0.93</v>
-      </c>
       <c r="BG21">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="BH21">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="22" spans="1:60">
@@ -4477,7 +4477,7 @@
         <v>97</v>
       </c>
       <c r="B22">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C22">
         <v>1.38</v>
@@ -4486,7 +4486,7 @@
         <v>0.46</v>
       </c>
       <c r="E22">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="F22">
         <v>0.88</v>
@@ -4495,16 +4495,16 @@
         <v>1.12</v>
       </c>
       <c r="H22">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="I22">
-        <v>0.9</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J22">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="L22">
         <v>1.2</v>
@@ -4513,22 +4513,22 @@
         <v>0.8</v>
       </c>
       <c r="N22">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O22">
         <v>0.59</v>
       </c>
       <c r="P22">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="Q22">
         <v>0.49</v>
       </c>
       <c r="R22">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="S22">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="T22">
         <v>0.92</v>
@@ -4549,109 +4549,109 @@
         <v>0.85</v>
       </c>
       <c r="Z22">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AA22">
-        <v>1.61</v>
+        <v>1.44</v>
       </c>
       <c r="AB22">
-        <v>0.85</v>
+        <v>0.76</v>
       </c>
       <c r="AC22">
         <v>0.25</v>
       </c>
       <c r="AD22">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AE22">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="AF22">
-        <v>0.6899999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AG22">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AH22">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AI22">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="AJ22">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
       <c r="AK22">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="AL22">
-        <v>0.8100000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="AM22">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="AN22">
         <v>1.73</v>
       </c>
       <c r="AO22">
-        <v>0.41</v>
+        <v>0.49</v>
       </c>
       <c r="AP22">
-        <v>1.15</v>
+        <v>1.32</v>
       </c>
       <c r="AQ22">
         <v>0.49</v>
       </c>
       <c r="AR22">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AS22">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT22">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="AU22">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AV22">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="AW22">
         <v>0.11</v>
       </c>
       <c r="AX22">
-        <v>0.89</v>
+        <v>0.76</v>
       </c>
       <c r="AY22">
         <v>1.13</v>
       </c>
       <c r="AZ22">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="BA22">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="BB22">
-        <v>1.13</v>
+        <v>0.98</v>
       </c>
       <c r="BC22">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="BD22">
-        <v>0.87</v>
+        <v>0.99</v>
       </c>
       <c r="BE22">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="BF22">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="BG22">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="BH22">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="23" spans="1:60">
@@ -5023,22 +5023,22 @@
         <v>100</v>
       </c>
       <c r="B25">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="C25">
         <v>1.38</v>
       </c>
       <c r="D25">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
       <c r="E25">
         <v>1.23</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="H25">
         <v>1.24</v>
@@ -5077,19 +5077,19 @@
         <v>0.76</v>
       </c>
       <c r="T25">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="V25">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="W25">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="X25">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="Y25">
         <v>0.93</v>
@@ -5104,28 +5104,28 @@
         <v>0.68</v>
       </c>
       <c r="AC25">
-        <v>0.17</v>
+        <v>0.42</v>
       </c>
       <c r="AD25">
-        <v>1.35</v>
+        <v>1.1</v>
       </c>
       <c r="AE25">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="AF25">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AG25">
         <v>1.88</v>
       </c>
       <c r="AH25">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="AI25">
         <v>0.5</v>
       </c>
       <c r="AJ25">
-        <v>0.38</v>
+        <v>0.5</v>
       </c>
       <c r="AK25">
         <v>1.33</v>
@@ -5143,28 +5143,28 @@
         <v>0.41</v>
       </c>
       <c r="AP25">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="AQ25">
         <v>0.66</v>
       </c>
       <c r="AR25">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="AS25">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="AT25">
-        <v>0.98</v>
+        <v>0.87</v>
       </c>
       <c r="AU25">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AV25">
         <v>1.09</v>
       </c>
       <c r="AW25">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="AX25">
         <v>1.09</v>
@@ -5173,25 +5173,25 @@
         <v>1.06</v>
       </c>
       <c r="AZ25">
-        <v>1.51</v>
+        <v>1.66</v>
       </c>
       <c r="BA25">
         <v>0.53</v>
       </c>
       <c r="BB25">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="BC25">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="BD25">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="BE25">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="BF25">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="BG25">
         <v>1.1</v>
@@ -5205,13 +5205,13 @@
         <v>101</v>
       </c>
       <c r="B26">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="C26">
         <v>1.38</v>
       </c>
       <c r="D26">
-        <v>0.46</v>
+        <v>0.54</v>
       </c>
       <c r="E26">
         <v>1.23</v>
@@ -5229,10 +5229,10 @@
         <v>0.76</v>
       </c>
       <c r="J26">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K26">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -5241,22 +5241,22 @@
         <v>1</v>
       </c>
       <c r="N26">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="O26">
         <v>0.59</v>
       </c>
       <c r="P26">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="Q26">
         <v>0.49</v>
       </c>
       <c r="R26">
-        <v>1.14</v>
+        <v>1.24</v>
       </c>
       <c r="S26">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="T26">
         <v>0.92</v>
@@ -5268,28 +5268,28 @@
         <v>1.08</v>
       </c>
       <c r="W26">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="X26">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="Y26">
         <v>0.93</v>
       </c>
       <c r="Z26">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="AA26">
         <v>1.44</v>
       </c>
       <c r="AB26">
-        <v>0.59</v>
+        <v>0.68</v>
       </c>
       <c r="AC26">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="AD26">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AE26">
         <v>1.62</v>
@@ -5310,16 +5310,16 @@
         <v>0.38</v>
       </c>
       <c r="AK26">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="AL26">
-        <v>0.8100000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AM26">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="AN26">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AO26">
         <v>0.41</v>
@@ -5334,22 +5334,22 @@
         <v>0.33</v>
       </c>
       <c r="AS26">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="AT26">
-        <v>0.87</v>
+        <v>0.98</v>
       </c>
       <c r="AU26">
-        <v>1.42</v>
+        <v>1.2</v>
       </c>
       <c r="AV26">
         <v>1.09</v>
       </c>
       <c r="AW26">
-        <v>0.11</v>
+        <v>0.22</v>
       </c>
       <c r="AX26">
-        <v>0.98</v>
+        <v>1.09</v>
       </c>
       <c r="AY26">
         <v>1.06</v>
@@ -5370,10 +5370,10 @@
         <v>0.91</v>
       </c>
       <c r="BE26">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="BF26">
-        <v>0.91</v>
+        <v>0.97</v>
       </c>
       <c r="BG26">
         <v>1.1</v>
@@ -5399,10 +5399,10 @@
         <v>1.23</v>
       </c>
       <c r="F27">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>1.24</v>
@@ -5411,10 +5411,10 @@
         <v>0.76</v>
       </c>
       <c r="J27">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K27">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -5423,97 +5423,97 @@
         <v>1</v>
       </c>
       <c r="N27">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="O27">
         <v>0.59</v>
       </c>
       <c r="P27">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="Q27">
         <v>0.49</v>
       </c>
       <c r="R27">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="S27">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="T27">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="U27">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="V27">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="W27">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="X27">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="Y27">
         <v>0.93</v>
       </c>
       <c r="Z27">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="AA27">
         <v>1.44</v>
       </c>
       <c r="AB27">
-        <v>0.68</v>
+        <v>0.59</v>
       </c>
       <c r="AC27">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
       <c r="AD27">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AE27">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="AF27">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="AG27">
         <v>1.88</v>
       </c>
       <c r="AH27">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="AI27">
         <v>0.5</v>
       </c>
       <c r="AJ27">
-        <v>0.5</v>
+        <v>0.38</v>
       </c>
       <c r="AK27">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="AL27">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AM27">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="AN27">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="AO27">
         <v>0.41</v>
       </c>
       <c r="AP27">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="AQ27">
         <v>0.66</v>
       </c>
       <c r="AR27">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="AS27">
         <v>1.53</v>
@@ -5522,7 +5522,7 @@
         <v>0.87</v>
       </c>
       <c r="AU27">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="AV27">
         <v>1.09</v>
@@ -5531,31 +5531,31 @@
         <v>0.11</v>
       </c>
       <c r="AX27">
-        <v>1.09</v>
+        <v>0.98</v>
       </c>
       <c r="AY27">
         <v>1.06</v>
       </c>
       <c r="AZ27">
-        <v>1.66</v>
+        <v>1.51</v>
       </c>
       <c r="BA27">
         <v>0.53</v>
       </c>
       <c r="BB27">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="BC27">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="BD27">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="BE27">
-        <v>1.97</v>
+        <v>2.06</v>
       </c>
       <c r="BF27">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="BG27">
         <v>1.1</v>
@@ -5972,13 +5972,13 @@
         <v>1.8</v>
       </c>
       <c r="O30">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
       <c r="P30">
         <v>1.12</v>
       </c>
       <c r="Q30">
-        <v>0.54</v>
+        <v>0.49</v>
       </c>
       <c r="R30">
         <v>1.24</v>
@@ -5996,10 +5996,10 @@
         <v>1.08</v>
       </c>
       <c r="W30">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="X30">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="Y30">
         <v>0.93</v>
@@ -6095,13 +6095,13 @@
         <v>0.11</v>
       </c>
       <c r="BD30">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="BE30">
         <v>2.03</v>
       </c>
       <c r="BF30">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="BG30">
         <v>1.1</v>
@@ -6154,13 +6154,13 @@
         <v>1.8</v>
       </c>
       <c r="O31">
-        <v>0.59</v>
+        <v>0.54</v>
       </c>
       <c r="P31">
         <v>1.12</v>
       </c>
       <c r="Q31">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="R31">
         <v>1.24</v>
@@ -6178,10 +6178,10 @@
         <v>1.08</v>
       </c>
       <c r="W31">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="X31">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="Y31">
         <v>0.93</v>
@@ -6277,13 +6277,13 @@
         <v>0.11</v>
       </c>
       <c r="BD31">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="BE31">
         <v>2.03</v>
       </c>
       <c r="BF31">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="BG31">
         <v>1.1</v>
@@ -6479,34 +6479,34 @@
         <v>108</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="C33">
         <v>1.38</v>
       </c>
       <c r="D33">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="E33">
         <v>1.23</v>
       </c>
       <c r="F33">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="I33">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="J33">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K33">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -6533,55 +6533,55 @@
         <v>0.76</v>
       </c>
       <c r="T33">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="U33">
         <v>1</v>
       </c>
       <c r="V33">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="W33">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="X33">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="Y33">
-        <v>1.01</v>
+        <v>0.93</v>
       </c>
       <c r="Z33">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="AA33">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="AB33">
-        <v>0.59</v>
+        <v>0.68</v>
       </c>
       <c r="AC33">
         <v>0.17</v>
       </c>
       <c r="AD33">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AE33">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="AF33">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="AG33">
         <v>1.88</v>
       </c>
       <c r="AH33">
-        <v>0.88</v>
+        <v>1.12</v>
       </c>
       <c r="AI33">
         <v>0.5</v>
       </c>
       <c r="AJ33">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AK33">
         <v>1.33</v>
@@ -6596,13 +6596,13 @@
         <v>1.73</v>
       </c>
       <c r="AO33">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="AP33">
         <v>1.32</v>
       </c>
       <c r="AQ33">
-        <v>0.74</v>
+        <v>0.66</v>
       </c>
       <c r="AR33">
         <v>0.33</v>
@@ -6626,28 +6626,28 @@
         <v>1.09</v>
       </c>
       <c r="AY33">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AZ33">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="BA33">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="BB33">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="BC33">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="BD33">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="BE33">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="BF33">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="BG33">
         <v>1.1</v>
@@ -6685,10 +6685,10 @@
         <v>0.78</v>
       </c>
       <c r="J34">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="K34">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -6730,46 +6730,46 @@
         <v>0.85</v>
       </c>
       <c r="Y34">
-        <v>0.93</v>
+        <v>1.01</v>
       </c>
       <c r="Z34">
         <v>1.52</v>
       </c>
       <c r="AA34">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="AB34">
         <v>0.59</v>
       </c>
       <c r="AC34">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="AD34">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AE34">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="AF34">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AG34">
         <v>1.88</v>
       </c>
       <c r="AH34">
-        <v>1.12</v>
+        <v>0.88</v>
       </c>
       <c r="AI34">
         <v>0.5</v>
       </c>
       <c r="AJ34">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AK34">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AL34">
-        <v>0.74</v>
+        <v>0.67</v>
       </c>
       <c r="AM34">
         <v>1.56</v>
@@ -6843,34 +6843,34 @@
         <v>110</v>
       </c>
       <c r="B35">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>1.38</v>
       </c>
       <c r="D35">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="E35">
         <v>1.23</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="H35">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="I35">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="J35">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K35">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -6897,34 +6897,34 @@
         <v>0.76</v>
       </c>
       <c r="T35">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="U35">
         <v>1</v>
       </c>
       <c r="V35">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="W35">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="X35">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="Y35">
         <v>0.93</v>
       </c>
       <c r="Z35">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="AA35">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AB35">
-        <v>0.68</v>
+        <v>0.59</v>
       </c>
       <c r="AC35">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AD35">
         <v>1.35</v>
@@ -6948,10 +6948,10 @@
         <v>0.5</v>
       </c>
       <c r="AK35">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AL35">
-        <v>0.67</v>
+        <v>0.74</v>
       </c>
       <c r="AM35">
         <v>1.56</v>
@@ -6960,13 +6960,13 @@
         <v>1.73</v>
       </c>
       <c r="AO35">
-        <v>0.41</v>
+        <v>0.33</v>
       </c>
       <c r="AP35">
         <v>1.32</v>
       </c>
       <c r="AQ35">
-        <v>0.66</v>
+        <v>0.74</v>
       </c>
       <c r="AR35">
         <v>0.33</v>
@@ -6990,28 +6990,28 @@
         <v>1.09</v>
       </c>
       <c r="AY35">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AZ35">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="BA35">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="BB35">
-        <v>0.91</v>
+        <v>0.85</v>
       </c>
       <c r="BC35">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="BD35">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="BE35">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="BF35">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="BG35">
         <v>1.1</v>
@@ -7231,10 +7231,10 @@
         <v>0.78</v>
       </c>
       <c r="J37">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="K37">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -7246,13 +7246,13 @@
         <v>1.8</v>
       </c>
       <c r="O37">
-        <v>0.59</v>
+        <v>0.54</v>
       </c>
       <c r="P37">
         <v>1.12</v>
       </c>
       <c r="Q37">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="R37">
         <v>1.24</v>
@@ -7282,7 +7282,7 @@
         <v>1.52</v>
       </c>
       <c r="AA37">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="AB37">
         <v>0.59</v>
@@ -7291,7 +7291,7 @@
         <v>0.17</v>
       </c>
       <c r="AD37">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AE37">
         <v>1.62</v>
@@ -7413,10 +7413,10 @@
         <v>0.78</v>
       </c>
       <c r="J38">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K38">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -7428,13 +7428,13 @@
         <v>1.8</v>
       </c>
       <c r="O38">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
       <c r="P38">
         <v>1.12</v>
       </c>
       <c r="Q38">
-        <v>0.54</v>
+        <v>0.49</v>
       </c>
       <c r="R38">
         <v>1.24</v>
@@ -7464,7 +7464,7 @@
         <v>1.52</v>
       </c>
       <c r="AA38">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AB38">
         <v>0.59</v>
@@ -7473,7 +7473,7 @@
         <v>0.17</v>
       </c>
       <c r="AD38">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="AE38">
         <v>1.62</v>
@@ -7753,34 +7753,34 @@
         <v>115</v>
       </c>
       <c r="B40">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>1.38</v>
       </c>
       <c r="D40">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="E40">
         <v>1.23</v>
       </c>
       <c r="F40">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="I40">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -7789,13 +7789,13 @@
         <v>1</v>
       </c>
       <c r="N40">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="O40">
         <v>0.59</v>
       </c>
       <c r="P40">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="Q40">
         <v>0.49</v>
@@ -7807,13 +7807,13 @@
         <v>0.76</v>
       </c>
       <c r="T40">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="V40">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="W40">
         <v>1.15</v>
@@ -7822,13 +7822,13 @@
         <v>0.85</v>
       </c>
       <c r="Y40">
-        <v>0.93</v>
+        <v>1.01</v>
       </c>
       <c r="Z40">
         <v>1.52</v>
       </c>
       <c r="AA40">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AB40">
         <v>0.59</v>
@@ -7840,10 +7840,10 @@
         <v>1.35</v>
       </c>
       <c r="AE40">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="AF40">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="AG40">
         <v>1.88</v>
@@ -7912,13 +7912,13 @@
         <v>0.91</v>
       </c>
       <c r="BC40">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="BD40">
         <v>0.9</v>
       </c>
       <c r="BE40">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="BF40">
         <v>0.96</v>
@@ -8117,34 +8117,34 @@
         <v>117</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="C42">
         <v>1.38</v>
       </c>
       <c r="D42">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="E42">
         <v>1.23</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="H42">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="I42">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="J42">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="K42">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="L42">
         <v>1</v>
@@ -8153,13 +8153,13 @@
         <v>1</v>
       </c>
       <c r="N42">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="O42">
         <v>0.59</v>
       </c>
       <c r="P42">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="Q42">
         <v>0.49</v>
@@ -8171,13 +8171,13 @@
         <v>0.76</v>
       </c>
       <c r="T42">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="U42">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="V42">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="W42">
         <v>1.15</v>
@@ -8186,13 +8186,13 @@
         <v>0.85</v>
       </c>
       <c r="Y42">
-        <v>1.01</v>
+        <v>0.93</v>
       </c>
       <c r="Z42">
         <v>1.52</v>
       </c>
       <c r="AA42">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AB42">
         <v>0.59</v>
@@ -8204,10 +8204,10 @@
         <v>1.35</v>
       </c>
       <c r="AE42">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="AF42">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="AG42">
         <v>1.88</v>
@@ -8276,13 +8276,13 @@
         <v>0.91</v>
       </c>
       <c r="BC42">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="BD42">
         <v>0.9</v>
       </c>
       <c r="BE42">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="BF42">
         <v>0.96</v>
@@ -8505,10 +8505,10 @@
         <v>0.84</v>
       </c>
       <c r="J44">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K44">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="L44">
         <v>1</v>
@@ -8681,16 +8681,16 @@
         <v>0.88</v>
       </c>
       <c r="H45">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="I45">
-        <v>0.84</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J45">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K45">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="L45">
         <v>1</v>
@@ -8899,13 +8899,13 @@
         <v>0.86</v>
       </c>
       <c r="T46">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="U46">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="V46">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W46">
         <v>1.15</v>
@@ -8992,16 +8992,16 @@
         <v>1.09</v>
       </c>
       <c r="AY46">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AZ46">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="BA46">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="BB46">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="BC46">
         <v>0.06</v>
@@ -9045,16 +9045,16 @@
         <v>0.88</v>
       </c>
       <c r="H47">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="I47">
-        <v>0.8100000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="J47">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K47">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -9081,13 +9081,13 @@
         <v>0.86</v>
       </c>
       <c r="T47">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="U47">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="V47">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W47">
         <v>1.15</v>
@@ -9174,16 +9174,16 @@
         <v>1.09</v>
       </c>
       <c r="AY47">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AZ47">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="BA47">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="BB47">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="BC47">
         <v>0.06</v>
@@ -9227,10 +9227,10 @@
         <v>0.88</v>
       </c>
       <c r="H48">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="I48">
-        <v>0.76</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J48">
         <v>1.03</v>
@@ -9278,13 +9278,13 @@
         <v>0.85</v>
       </c>
       <c r="Y48">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="Z48">
         <v>1.44</v>
       </c>
       <c r="AA48">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="AB48">
         <v>0.68</v>
@@ -9409,10 +9409,10 @@
         <v>0.88</v>
       </c>
       <c r="H49">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="I49">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="J49">
         <v>1.03</v>
@@ -9460,13 +9460,13 @@
         <v>0.85</v>
       </c>
       <c r="Y49">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="Z49">
         <v>1.44</v>
       </c>
       <c r="AA49">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="AB49">
         <v>0.68</v>
@@ -10683,10 +10683,10 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="I56">
-        <v>0.84</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J56">
         <v>1.05</v>
@@ -10752,10 +10752,10 @@
         <v>1.35</v>
       </c>
       <c r="AE56">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="AF56">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="AG56">
         <v>1.88</v>
@@ -10865,10 +10865,10 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="I57">
-        <v>0.8100000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="J57">
         <v>1.05</v>
@@ -10904,10 +10904,10 @@
         <v>0.92</v>
       </c>
       <c r="U57">
+        <v>1</v>
+      </c>
+      <c r="V57">
         <v>1.08</v>
-      </c>
-      <c r="V57">
-        <v>1</v>
       </c>
       <c r="W57">
         <v>1.11</v>
@@ -10934,10 +10934,10 @@
         <v>1.35</v>
       </c>
       <c r="AE57">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="AF57">
-        <v>0.38</v>
+        <v>0.32</v>
       </c>
       <c r="AG57">
         <v>1.88</v>
@@ -11086,10 +11086,10 @@
         <v>0.92</v>
       </c>
       <c r="U58">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="V58">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="W58">
         <v>1.11</v>
@@ -12133,16 +12133,16 @@
         <v>1.23</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H64">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="I64">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -12175,25 +12175,25 @@
         <v>0.76</v>
       </c>
       <c r="T64">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="U64">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="V64">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="W64">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="X64">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="Y64">
-        <v>1.01</v>
+        <v>0.93</v>
       </c>
       <c r="Z64">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AA64">
         <v>1.44</v>
@@ -12214,16 +12214,16 @@
         <v>0.38</v>
       </c>
       <c r="AG64">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="AH64">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="AI64">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="AJ64">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="AK64">
         <v>1.33</v>
@@ -12232,7 +12232,7 @@
         <v>0.67</v>
       </c>
       <c r="AM64">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="AN64">
         <v>1.73</v>
@@ -12241,7 +12241,7 @@
         <v>0.41</v>
       </c>
       <c r="AP64">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="AQ64">
         <v>0.66</v>
@@ -12250,34 +12250,34 @@
         <v>0.33</v>
       </c>
       <c r="AS64">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AT64">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="AU64">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AV64">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="AW64">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="AX64">
-        <v>1.09</v>
+        <v>0.96</v>
       </c>
       <c r="AY64">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AZ64">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="BA64">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="BB64">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="BC64">
         <v>0.11</v>
@@ -12497,16 +12497,16 @@
         <v>1.23</v>
       </c>
       <c r="F66">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="I66">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -12539,25 +12539,25 @@
         <v>0.76</v>
       </c>
       <c r="T66">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="U66">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="V66">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="W66">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="X66">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="Y66">
-        <v>0.93</v>
+        <v>1.01</v>
       </c>
       <c r="Z66">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AA66">
         <v>1.44</v>
@@ -12578,16 +12578,16 @@
         <v>0.38</v>
       </c>
       <c r="AG66">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="AH66">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AI66">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="AJ66">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="AK66">
         <v>1.33</v>
@@ -12596,7 +12596,7 @@
         <v>0.67</v>
       </c>
       <c r="AM66">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="AN66">
         <v>1.73</v>
@@ -12605,7 +12605,7 @@
         <v>0.41</v>
       </c>
       <c r="AP66">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="AQ66">
         <v>0.66</v>
@@ -12614,34 +12614,34 @@
         <v>0.33</v>
       </c>
       <c r="AS66">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="AT66">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="AU66">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AV66">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="AW66">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="AX66">
-        <v>0.96</v>
+        <v>1.09</v>
       </c>
       <c r="AY66">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AZ66">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="BA66">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="BB66">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="BC66">
         <v>0.11</v>
@@ -14487,16 +14487,16 @@
         <v>152</v>
       </c>
       <c r="B77">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="C77">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="D77">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
       <c r="E77">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -14523,31 +14523,31 @@
         <v>1</v>
       </c>
       <c r="N77">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O77">
         <v>0.59</v>
       </c>
       <c r="P77">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="Q77">
         <v>0.49</v>
       </c>
       <c r="R77">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="S77">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="T77">
         <v>0.92</v>
       </c>
       <c r="U77">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="V77">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="W77">
         <v>1.15</v>
@@ -14574,10 +14574,10 @@
         <v>1.35</v>
       </c>
       <c r="AE77">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="AF77">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AG77">
         <v>1.88</v>
@@ -14592,10 +14592,10 @@
         <v>0.5</v>
       </c>
       <c r="AK77">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AL77">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AM77">
         <v>1.56</v>
@@ -14634,28 +14634,28 @@
         <v>1.09</v>
       </c>
       <c r="AY77">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AZ77">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="BA77">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
       <c r="BB77">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="BC77">
         <v>0.11</v>
       </c>
       <c r="BD77">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="BE77">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="BF77">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="BG77">
         <v>1.1</v>
@@ -14705,31 +14705,31 @@
         <v>1</v>
       </c>
       <c r="N78">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O78">
         <v>0.59</v>
       </c>
       <c r="P78">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="Q78">
         <v>0.49</v>
       </c>
       <c r="R78">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="S78">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="T78">
         <v>0.92</v>
       </c>
       <c r="U78">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="V78">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="W78">
         <v>1.15</v>
@@ -14774,10 +14774,10 @@
         <v>0.5</v>
       </c>
       <c r="AK78">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AL78">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AM78">
         <v>1.56</v>
@@ -14831,13 +14831,13 @@
         <v>0.11</v>
       </c>
       <c r="BD78">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="BE78">
-        <v>2.03</v>
+        <v>2.06</v>
       </c>
       <c r="BF78">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="BG78">
         <v>1.1</v>
@@ -14851,16 +14851,16 @@
         <v>154</v>
       </c>
       <c r="B79">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="C79">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="D79">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
       <c r="E79">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -14899,10 +14899,10 @@
         <v>0.49</v>
       </c>
       <c r="R79">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="S79">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="T79">
         <v>0.92</v>
@@ -14938,10 +14938,10 @@
         <v>1.35</v>
       </c>
       <c r="AE79">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="AF79">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="AG79">
         <v>1.88</v>
@@ -14998,16 +14998,16 @@
         <v>1.09</v>
       </c>
       <c r="AY79">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AZ79">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="BA79">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
       <c r="BB79">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="BC79">
         <v>0.11</v>
@@ -15016,10 +15016,10 @@
         <v>0.9</v>
       </c>
       <c r="BE79">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="BF79">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="BG79">
         <v>1.1</v>
@@ -15535,13 +15535,13 @@
         <v>1.2</v>
       </c>
       <c r="AV82">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="AW82">
         <v>0.22</v>
       </c>
       <c r="AX82">
-        <v>1.09</v>
+        <v>0.98</v>
       </c>
       <c r="AY82">
         <v>1.08</v>
@@ -15562,10 +15562,10 @@
         <v>0.9</v>
       </c>
       <c r="BE82">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="BF82">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="BG82">
         <v>1.1</v>
@@ -15717,13 +15717,13 @@
         <v>1.2</v>
       </c>
       <c r="AV83">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AW83">
         <v>0.22</v>
       </c>
       <c r="AX83">
-        <v>0.98</v>
+        <v>1.09</v>
       </c>
       <c r="AY83">
         <v>1.08</v>
@@ -15744,10 +15744,10 @@
         <v>0.9</v>
       </c>
       <c r="BE83">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="BF83">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="BG83">
         <v>1.1</v>
@@ -18127,16 +18127,16 @@
         <v>172</v>
       </c>
       <c r="B97">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="C97">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="D97">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
       <c r="E97">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -18145,16 +18145,16 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="I97">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="K97">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="L97">
         <v>1</v>
@@ -18163,13 +18163,13 @@
         <v>1</v>
       </c>
       <c r="N97">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="O97">
         <v>0.59</v>
       </c>
       <c r="P97">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="Q97">
         <v>0.49</v>
@@ -18190,28 +18190,28 @@
         <v>1.08</v>
       </c>
       <c r="W97">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="X97">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="Y97">
         <v>0.93</v>
       </c>
       <c r="Z97">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AA97">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="AB97">
-        <v>0.76</v>
+        <v>0.68</v>
       </c>
       <c r="AC97">
         <v>0.17</v>
       </c>
       <c r="AD97">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AE97">
         <v>1.68</v>
@@ -18232,28 +18232,28 @@
         <v>0.38</v>
       </c>
       <c r="AK97">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AL97">
-        <v>0.67</v>
+        <v>0.74</v>
       </c>
       <c r="AM97">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="AN97">
-        <v>1.78</v>
+        <v>1.73</v>
       </c>
       <c r="AO97">
         <v>0.41</v>
       </c>
       <c r="AP97">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AQ97">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="AR97">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="AS97">
         <v>1.39</v>
@@ -18286,16 +18286,16 @@
         <v>0.91</v>
       </c>
       <c r="BC97">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="BD97">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="BE97">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="BF97">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="BG97">
         <v>1.1</v>
@@ -18309,16 +18309,16 @@
         <v>173</v>
       </c>
       <c r="B98">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="C98">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="D98">
-        <v>0.53</v>
+        <v>0.46</v>
       </c>
       <c r="E98">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -18327,16 +18327,16 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="I98">
-        <v>0.76</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J98">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="K98">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="L98">
         <v>1</v>
@@ -18345,13 +18345,13 @@
         <v>1</v>
       </c>
       <c r="N98">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="O98">
         <v>0.59</v>
       </c>
       <c r="P98">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="Q98">
         <v>0.49</v>
@@ -18372,28 +18372,28 @@
         <v>1.08</v>
       </c>
       <c r="W98">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="X98">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="Y98">
         <v>0.93</v>
       </c>
       <c r="Z98">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="AA98">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="AB98">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
       <c r="AC98">
         <v>0.17</v>
       </c>
       <c r="AD98">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="AE98">
         <v>1.68</v>
@@ -18414,28 +18414,28 @@
         <v>0.38</v>
       </c>
       <c r="AK98">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AL98">
-        <v>0.74</v>
+        <v>0.67</v>
       </c>
       <c r="AM98">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AN98">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="AO98">
         <v>0.41</v>
       </c>
       <c r="AP98">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AQ98">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="AR98">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="AS98">
         <v>1.39</v>
@@ -18468,16 +18468,16 @@
         <v>0.91</v>
       </c>
       <c r="BC98">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="BD98">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="BE98">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="BF98">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="BG98">
         <v>1.1</v>
